--- a/Shop Files/osceola.xlsx
+++ b/Shop Files/osceola.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="429" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="430" xml:space="preserve">
   <si>
     <t>Inventory Status</t>
   </si>
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>06/09/2025 07:04 PM</t>
+      <t>06/17/2025 08:15 PM</t>
     </r>
   </si>
   <si>
@@ -457,6 +457,12 @@
     <t>delta vent fan</t>
   </si>
   <si>
+    <t>Disc Light</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>3636057</t>
   </si>
   <si>
@@ -467,9 +473,6 @@
   </si>
   <si>
     <t>61425 - HVAC/Water Heater Repair</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>3584619</t>
@@ -1520,7 +1523,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:O194"/>
+  <dimension ref="A1:O195"/>
   <sheetViews>
     <sheetView defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showRuler="1" showWhiteSpace="0" showZeros="1" tabSelected="0" windowProtection="0" showOutlineSymbols="1" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -1891,7 +1894,7 @@
         <v>4.64</v>
       </c>
       <c r="F12" s="9" t="n">
-        <v>27.84</v>
+        <v>18.56</v>
       </c>
       <c r="G12" s="9" t="n">
         <v>4.64</v>
@@ -1906,7 +1909,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" s="9" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>31</v>
@@ -2059,7 +2062,7 @@
         <v>6.71</v>
       </c>
       <c r="F16" s="9" t="n">
-        <v>60.39</v>
+        <v>46.97</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>6.71</v>
@@ -2074,7 +2077,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" s="9" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>31</v>
@@ -2227,7 +2230,7 @@
         <v>647.35</v>
       </c>
       <c r="F20" s="9" t="n">
-        <v>1294.7</v>
+        <v>647.35</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>647.35</v>
@@ -2242,7 +2245,7 @@
         <v>0.0</v>
       </c>
       <c r="K20" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>48</v>
@@ -2358,7 +2361,7 @@
         <v>534.99</v>
       </c>
       <c r="F23" s="9" t="n">
-        <v>6419.88</v>
+        <v>4279.92</v>
       </c>
       <c r="G23" s="9" t="n">
         <v>534.99</v>
@@ -2373,7 +2376,7 @@
         <v>0.0</v>
       </c>
       <c r="K23" s="9" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>48</v>
@@ -2671,7 +2674,7 @@
         <v>13.19</v>
       </c>
       <c r="F30" s="9" t="n">
-        <v>39.57</v>
+        <v>0.0</v>
       </c>
       <c r="G30" s="9" t="n">
         <v>13.19</v>
@@ -2686,7 +2689,7 @@
         <v>0.0</v>
       </c>
       <c r="K30" s="9" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>45</v>
@@ -2978,7 +2981,7 @@
         <v>2.08</v>
       </c>
       <c r="F37" s="9" t="n">
-        <v>22.88</v>
+        <v>20.8</v>
       </c>
       <c r="G37" s="9" t="n">
         <v>2.08</v>
@@ -2993,7 +2996,7 @@
         <v>0.0</v>
       </c>
       <c r="K37" s="9" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>25</v>
@@ -3533,24 +3536,24 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C50" s="7"/>
+      <c r="C50" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="D50" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E50" s="9" t="n">
-        <v>9.58</v>
+        <v>11.72</v>
       </c>
       <c r="F50" s="9" t="n">
-        <v>9.58</v>
+        <v>58.6</v>
       </c>
       <c r="G50" s="9" t="n">
-        <v>9.58</v>
+        <v>11.72</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>69</v>
@@ -3562,39 +3565,39 @@
         <v>0.0</v>
       </c>
       <c r="K50" s="9" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="M50" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N50" s="7"/>
-      <c r="O50" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="O50" s="7"/>
     </row>
     <row r="51">
-      <c r="A51" s="7"/>
+      <c r="A51" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="B51" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E51" s="9" t="n">
-        <v>23.53</v>
+        <v>9.58</v>
       </c>
       <c r="F51" s="9" t="n">
-        <v>117.65</v>
+        <v>9.58</v>
       </c>
       <c r="G51" s="9" t="n">
-        <v>23.53</v>
+        <v>9.58</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="I51" s="9" t="n">
         <v>0.0</v>
@@ -3603,41 +3606,39 @@
         <v>0.0</v>
       </c>
       <c r="K51" s="9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="M51" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N51" s="7"/>
       <c r="O51" s="7" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7" t="s">
-        <v>138</v>
-      </c>
+      <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E52" s="9" t="n">
-        <v>23.51</v>
+        <v>23.53</v>
       </c>
       <c r="F52" s="9" t="n">
-        <v>258.61</v>
+        <v>117.65</v>
       </c>
       <c r="G52" s="9" t="n">
-        <v>23.51</v>
+        <v>23.53</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="I52" s="9" t="n">
         <v>0.0</v>
@@ -3646,45 +3647,41 @@
         <v>0.0</v>
       </c>
       <c r="K52" s="9" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="M52" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N52" s="7" t="s">
-        <v>140</v>
-      </c>
+      <c r="N52" s="7"/>
       <c r="O52" s="7" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>78</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C53" s="7"/>
       <c r="D53" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E53" s="9" t="n">
-        <v>2.49</v>
+        <v>23.51</v>
       </c>
       <c r="F53" s="9" t="n">
-        <v>22.41</v>
+        <v>258.61</v>
       </c>
       <c r="G53" s="9" t="n">
-        <v>2.49</v>
+        <v>23.51</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="I53" s="9" t="n">
         <v>0.0</v>
@@ -3693,41 +3690,45 @@
         <v>0.0</v>
       </c>
       <c r="K53" s="9" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="M53" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="7"/>
+      <c r="N53" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="O53" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C54" s="7"/>
+      <c r="C54" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="D54" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E54" s="9" t="n">
-        <v>11.76</v>
+        <v>2.49</v>
       </c>
       <c r="F54" s="9" t="n">
-        <v>23.52</v>
+        <v>22.41</v>
       </c>
       <c r="G54" s="9" t="n">
-        <v>11.76</v>
+        <v>2.49</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="I54" s="9" t="n">
         <v>0.0</v>
@@ -3736,43 +3737,41 @@
         <v>0.0</v>
       </c>
       <c r="K54" s="9" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="M54" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N54" s="7" t="s">
-        <v>145</v>
-      </c>
+      <c r="N54" s="7"/>
       <c r="O54" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E55" s="9" t="n">
-        <v>5.87</v>
+        <v>11.76</v>
       </c>
       <c r="F55" s="9" t="n">
-        <v>17.61</v>
+        <v>23.52</v>
       </c>
       <c r="G55" s="9" t="n">
-        <v>5.87</v>
+        <v>11.76</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="I55" s="9" t="n">
         <v>0.0</v>
@@ -3781,7 +3780,7 @@
         <v>0.0</v>
       </c>
       <c r="K55" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>45</v>
@@ -3789,35 +3788,35 @@
       <c r="M55" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N55" s="7"/>
+      <c r="N55" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="O55" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>100</v>
-      </c>
+      <c r="C56" s="7"/>
       <c r="D56" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E56" s="9" t="n">
-        <v>13.24</v>
+        <v>5.87</v>
       </c>
       <c r="F56" s="9" t="n">
-        <v>79.44</v>
+        <v>17.61</v>
       </c>
       <c r="G56" s="9" t="n">
-        <v>13.24</v>
+        <v>5.87</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="I56" s="9" t="n">
         <v>0.0</v>
@@ -3826,7 +3825,7 @@
         <v>0.0</v>
       </c>
       <c r="K56" s="9" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>45</v>
@@ -3834,37 +3833,35 @@
       <c r="M56" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N56" s="7" t="s">
-        <v>150</v>
-      </c>
+      <c r="N56" s="7"/>
       <c r="O56" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E57" s="9" t="n">
-        <v>1.92</v>
+        <v>13.24</v>
       </c>
       <c r="F57" s="9" t="n">
-        <v>9.6</v>
+        <v>79.44</v>
       </c>
       <c r="G57" s="9" t="n">
-        <v>1.92</v>
+        <v>13.24</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="I57" s="9" t="n">
         <v>0.0</v>
@@ -3873,40 +3870,42 @@
         <v>0.0</v>
       </c>
       <c r="K57" s="9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M57" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="7"/>
+      <c r="N57" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="O57" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E58" s="9" t="n">
-        <v>2.32</v>
+        <v>1.92</v>
       </c>
       <c r="F58" s="9" t="n">
-        <v>18.56</v>
+        <v>9.6</v>
       </c>
       <c r="G58" s="9" t="n">
-        <v>2.32</v>
+        <v>1.92</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>69</v>
@@ -3918,10 +3917,10 @@
         <v>0.0</v>
       </c>
       <c r="K58" s="9" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="M58" s="7" t="s">
         <v>20</v>
@@ -3933,26 +3932,28 @@
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C59" s="7"/>
       <c r="D59" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E59" s="9" t="n">
-        <v>16.11</v>
+        <v>2.32</v>
       </c>
       <c r="F59" s="9" t="n">
-        <v>64.44</v>
+        <v>18.56</v>
       </c>
       <c r="G59" s="9" t="n">
-        <v>16.11</v>
+        <v>2.32</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I59" s="9" t="n">
         <v>0.0</v>
@@ -3961,41 +3962,41 @@
         <v>0.0</v>
       </c>
       <c r="K59" s="9" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="M59" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N59" s="7"/>
       <c r="O59" s="7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E60" s="9" t="n">
-        <v>7.47</v>
+        <v>16.11</v>
       </c>
       <c r="F60" s="9" t="n">
-        <v>29.88</v>
+        <v>64.44</v>
       </c>
       <c r="G60" s="9" t="n">
-        <v>7.47</v>
+        <v>16.11</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="I60" s="9" t="n">
         <v>0.0</v>
@@ -4007,22 +4008,22 @@
         <v>4.0</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="M60" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N60" s="7"/>
       <c r="O60" s="7" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7" t="s">
@@ -4032,7 +4033,7 @@
         <v>7.47</v>
       </c>
       <c r="F61" s="9" t="n">
-        <v>29.88</v>
+        <v>22.41</v>
       </c>
       <c r="G61" s="9" t="n">
         <v>7.47</v>
@@ -4047,10 +4048,10 @@
         <v>0.0</v>
       </c>
       <c r="K61" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M61" s="7" t="s">
         <v>20</v>
@@ -4061,7 +4062,9 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="7"/>
+      <c r="A62" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="B62" s="7" t="s">
         <v>163</v>
       </c>
@@ -4070,16 +4073,16 @@
         <v>68</v>
       </c>
       <c r="E62" s="9" t="n">
-        <v>8.99</v>
+        <v>7.47</v>
       </c>
       <c r="F62" s="9" t="n">
-        <v>8.99</v>
+        <v>29.88</v>
       </c>
       <c r="G62" s="9" t="n">
-        <v>8.99</v>
+        <v>7.47</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I62" s="9" t="n">
         <v>0.0</v>
@@ -4088,10 +4091,10 @@
         <v>0.0</v>
       </c>
       <c r="K62" s="9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="M62" s="7" t="s">
         <v>20</v>
@@ -4102,27 +4105,25 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E63" s="9" t="n">
-        <v>9.19</v>
+        <v>8.99</v>
       </c>
       <c r="F63" s="9" t="n">
-        <v>55.14</v>
+        <v>8.99</v>
       </c>
       <c r="G63" s="9" t="n">
-        <v>9.19</v>
+        <v>8.99</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I63" s="9" t="n">
         <v>0.0</v>
@@ -4131,10 +4132,10 @@
         <v>0.0</v>
       </c>
       <c r="K63" s="9" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="M63" s="7" t="s">
         <v>20</v>
@@ -4146,23 +4147,23 @@
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E64" s="9" t="n">
-        <v>7.09</v>
+        <v>9.19</v>
       </c>
       <c r="F64" s="9" t="n">
-        <v>28.36</v>
+        <v>55.14</v>
       </c>
       <c r="G64" s="9" t="n">
-        <v>7.09</v>
+        <v>9.19</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>69</v>
@@ -4174,7 +4175,7 @@
         <v>0.0</v>
       </c>
       <c r="K64" s="9" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="L64" s="7" t="s">
         <v>25</v>
@@ -4189,10 +4190,10 @@
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7" t="s">
@@ -4202,7 +4203,7 @@
         <v>7.09</v>
       </c>
       <c r="F65" s="9" t="n">
-        <v>35.45</v>
+        <v>28.36</v>
       </c>
       <c r="G65" s="9" t="n">
         <v>7.09</v>
@@ -4217,7 +4218,7 @@
         <v>0.0</v>
       </c>
       <c r="K65" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="L65" s="7" t="s">
         <v>25</v>
@@ -4231,7 +4232,9 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="7"/>
+      <c r="A66" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="B66" s="7" t="s">
         <v>170</v>
       </c>
@@ -4240,16 +4243,16 @@
         <v>68</v>
       </c>
       <c r="E66" s="9" t="n">
-        <v>35.0</v>
+        <v>7.09</v>
       </c>
       <c r="F66" s="9" t="n">
-        <v>70.0</v>
+        <v>35.45</v>
       </c>
       <c r="G66" s="9" t="n">
-        <v>35.0</v>
+        <v>7.09</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I66" s="9" t="n">
         <v>0.0</v>
@@ -4258,38 +4261,36 @@
         <v>0.0</v>
       </c>
       <c r="K66" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M66" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N66" s="7" t="s">
-        <v>171</v>
-      </c>
+      <c r="N66" s="7"/>
       <c r="O66" s="7" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="7"/>
       <c r="B67" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E67" s="9" t="n">
-        <v>45.0</v>
+        <v>35.0</v>
       </c>
       <c r="F67" s="9" t="n">
-        <v>90.0</v>
+        <v>70.0</v>
       </c>
       <c r="G67" s="9" t="n">
-        <v>45.0</v>
+        <v>35.0</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>53</v>
@@ -4310,7 +4311,7 @@
         <v>20</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O67" s="7" t="s">
         <v>107</v>
@@ -4319,20 +4320,20 @@
     <row r="68">
       <c r="A68" s="7"/>
       <c r="B68" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E68" s="9" t="n">
-        <v>39.99</v>
+        <v>45.0</v>
       </c>
       <c r="F68" s="9" t="n">
-        <v>359.91</v>
+        <v>90.0</v>
       </c>
       <c r="G68" s="9" t="n">
-        <v>39.99</v>
+        <v>45.0</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>53</v>
@@ -4344,16 +4345,16 @@
         <v>0.0</v>
       </c>
       <c r="K68" s="9" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M68" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O68" s="7" t="s">
         <v>107</v>
@@ -4362,23 +4363,23 @@
     <row r="69">
       <c r="A69" s="7"/>
       <c r="B69" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E69" s="9" t="n">
-        <v>19.27</v>
+        <v>39.99</v>
       </c>
       <c r="F69" s="9" t="n">
-        <v>96.35</v>
+        <v>359.91</v>
       </c>
       <c r="G69" s="9" t="n">
-        <v>19.27</v>
+        <v>39.99</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="I69" s="9" t="n">
         <v>0.0</v>
@@ -4387,7 +4388,7 @@
         <v>0.0</v>
       </c>
       <c r="K69" s="9" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="L69" s="7" t="s">
         <v>25</v>
@@ -4395,33 +4396,33 @@
       <c r="M69" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N69" s="7"/>
+      <c r="N69" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="O69" s="7" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E70" s="9" t="n">
-        <v>10.65</v>
+        <v>19.27</v>
       </c>
       <c r="F70" s="9" t="n">
-        <v>10.65</v>
+        <v>96.35</v>
       </c>
       <c r="G70" s="9" t="n">
-        <v>10.65</v>
+        <v>19.27</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I70" s="9" t="n">
         <v>0.0</v>
@@ -4430,43 +4431,41 @@
         <v>0.0</v>
       </c>
       <c r="K70" s="9" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="M70" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N70" s="7"/>
       <c r="O70" s="7" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>181</v>
-      </c>
+      <c r="C71" s="7"/>
       <c r="D71" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E71" s="9" t="n">
-        <v>21.39</v>
+        <v>10.65</v>
       </c>
       <c r="F71" s="9" t="n">
-        <v>42.78</v>
+        <v>10.65</v>
       </c>
       <c r="G71" s="9" t="n">
-        <v>21.39</v>
+        <v>10.65</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="I71" s="9" t="n">
         <v>0.0</v>
@@ -4475,43 +4474,43 @@
         <v>0.0</v>
       </c>
       <c r="K71" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M71" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N71" s="7" t="s">
-        <v>182</v>
-      </c>
+      <c r="N71" s="7"/>
       <c r="O71" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C72" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="D72" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E72" s="9" t="n">
-        <v>5.87</v>
+        <v>21.39</v>
       </c>
       <c r="F72" s="9" t="n">
-        <v>17.61</v>
+        <v>42.78</v>
       </c>
       <c r="G72" s="9" t="n">
-        <v>5.87</v>
+        <v>21.39</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="I72" s="9" t="n">
         <v>0.0</v>
@@ -4520,7 +4519,7 @@
         <v>0.0</v>
       </c>
       <c r="K72" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>45</v>
@@ -4528,13 +4527,17 @@
       <c r="M72" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N72" s="7"/>
+      <c r="N72" s="7" t="s">
+        <v>183</v>
+      </c>
       <c r="O72" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="7"/>
+      <c r="A73" s="7" t="s">
+        <v>184</v>
+      </c>
       <c r="B73" s="7" t="s">
         <v>185</v>
       </c>
@@ -4543,16 +4546,16 @@
         <v>68</v>
       </c>
       <c r="E73" s="9" t="n">
-        <v>23.53</v>
+        <v>5.87</v>
       </c>
       <c r="F73" s="9" t="n">
-        <v>94.12</v>
+        <v>17.61</v>
       </c>
       <c r="G73" s="9" t="n">
-        <v>23.53</v>
+        <v>5.87</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="I73" s="9" t="n">
         <v>0.0</v>
@@ -4561,43 +4564,39 @@
         <v>0.0</v>
       </c>
       <c r="K73" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="M73" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N73" s="7"/>
       <c r="O73" s="7" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="7" t="s">
-        <v>108</v>
-      </c>
+      <c r="A74" s="7"/>
       <c r="B74" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>187</v>
-      </c>
+      <c r="C74" s="7"/>
       <c r="D74" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E74" s="9" t="n">
-        <v>2.04</v>
+        <v>23.53</v>
       </c>
       <c r="F74" s="9" t="n">
-        <v>0.0</v>
+        <v>94.12</v>
       </c>
       <c r="G74" s="9" t="n">
-        <v>2.04</v>
+        <v>23.53</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="I74" s="9" t="n">
         <v>0.0</v>
@@ -4606,43 +4605,43 @@
         <v>0.0</v>
       </c>
       <c r="K74" s="9" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="M74" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N74" s="7"/>
       <c r="O74" s="7" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="B75" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E75" s="9" t="n">
-        <v>2.49</v>
+        <v>2.04</v>
       </c>
       <c r="F75" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="G75" s="9" t="n">
-        <v>2.49</v>
+        <v>2.04</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I75" s="9" t="n">
         <v>0.0</v>
@@ -4666,112 +4665,116 @@
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B76" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E76" s="9" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="F76" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G76" s="9" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I76" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J76" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K76" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M76" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E77" s="9" t="n">
         <v>13.24</v>
       </c>
-      <c r="F76" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G76" s="9" t="n">
+      <c r="F77" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G77" s="9" t="n">
         <v>13.24</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H77" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I76" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J76" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K76" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L76" s="7" t="s">
+      <c r="I77" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J77" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K77" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L77" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M76" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N76" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="O76" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E77" s="9" t="n">
-        <v>352.03</v>
-      </c>
-      <c r="F77" s="9" t="n">
-        <v>352.03</v>
-      </c>
-      <c r="G77" s="9" t="n">
-        <v>352.03</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="I77" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J77" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K77" s="9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L77" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="M77" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N77" s="7"/>
+      <c r="N77" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="O77" s="7" t="s">
-        <v>195</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="7"/>
       <c r="B78" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E78" s="9" t="n">
-        <v>73.83</v>
+        <v>352.03</v>
       </c>
       <c r="F78" s="9" t="n">
-        <v>73.83</v>
+        <v>352.03</v>
       </c>
       <c r="G78" s="9" t="n">
-        <v>73.83</v>
+        <v>352.03</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I78" s="9" t="n">
         <v>0.0</v>
@@ -4790,29 +4793,29 @@
       </c>
       <c r="N78" s="7"/>
       <c r="O78" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="7"/>
       <c r="B79" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E79" s="9" t="n">
-        <v>171.19</v>
+        <v>73.83</v>
       </c>
       <c r="F79" s="9" t="n">
-        <v>171.19</v>
+        <v>73.83</v>
       </c>
       <c r="G79" s="9" t="n">
-        <v>171.19</v>
+        <v>73.83</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I79" s="9" t="n">
         <v>0.0</v>
@@ -4831,7 +4834,7 @@
       </c>
       <c r="N79" s="7"/>
       <c r="O79" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80">
@@ -4841,19 +4844,19 @@
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E80" s="9" t="n">
-        <v>95.23</v>
+        <v>171.19</v>
       </c>
       <c r="F80" s="9" t="n">
-        <v>190.46</v>
+        <v>171.19</v>
       </c>
       <c r="G80" s="9" t="n">
-        <v>95.23</v>
+        <v>171.19</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I80" s="9" t="n">
         <v>0.0</v>
@@ -4862,7 +4865,7 @@
         <v>0.0</v>
       </c>
       <c r="K80" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>48</v>
@@ -4872,7 +4875,7 @@
       </c>
       <c r="N80" s="7"/>
       <c r="O80" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81">
@@ -4882,19 +4885,19 @@
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E81" s="9" t="n">
-        <v>191.53</v>
+        <v>95.23</v>
       </c>
       <c r="F81" s="9" t="n">
-        <v>191.53</v>
+        <v>190.46</v>
       </c>
       <c r="G81" s="9" t="n">
-        <v>191.53</v>
+        <v>95.23</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I81" s="9" t="n">
         <v>0.0</v>
@@ -4903,7 +4906,7 @@
         <v>0.0</v>
       </c>
       <c r="K81" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L81" s="7" t="s">
         <v>48</v>
@@ -4913,7 +4916,7 @@
       </c>
       <c r="N81" s="7"/>
       <c r="O81" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82">
@@ -4923,19 +4926,19 @@
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E82" s="9" t="n">
-        <v>37.45</v>
+        <v>191.53</v>
       </c>
       <c r="F82" s="9" t="n">
-        <v>37.45</v>
+        <v>191.53</v>
       </c>
       <c r="G82" s="9" t="n">
-        <v>37.45</v>
+        <v>191.53</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I82" s="9" t="n">
         <v>0.0</v>
@@ -4954,7 +4957,7 @@
       </c>
       <c r="N82" s="7"/>
       <c r="O82" s="7" t="s">
-        <v>54</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83">
@@ -4964,19 +4967,19 @@
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E83" s="9" t="n">
-        <v>255.73</v>
+        <v>37.45</v>
       </c>
       <c r="F83" s="9" t="n">
-        <v>0.0</v>
+        <v>37.45</v>
       </c>
       <c r="G83" s="9" t="n">
-        <v>255.73</v>
+        <v>37.45</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I83" s="9" t="n">
         <v>0.0</v>
@@ -4985,7 +4988,7 @@
         <v>0.0</v>
       </c>
       <c r="K83" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>48</v>
@@ -5005,19 +5008,19 @@
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E84" s="9" t="n">
-        <v>170.13</v>
+        <v>255.73</v>
       </c>
       <c r="F84" s="9" t="n">
-        <v>170.13</v>
+        <v>0.0</v>
       </c>
       <c r="G84" s="9" t="n">
-        <v>170.13</v>
+        <v>255.73</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I84" s="9" t="n">
         <v>0.0</v>
@@ -5026,7 +5029,7 @@
         <v>0.0</v>
       </c>
       <c r="K84" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L84" s="7" t="s">
         <v>48</v>
@@ -5036,7 +5039,7 @@
       </c>
       <c r="N84" s="7"/>
       <c r="O84" s="7" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85">
@@ -5046,19 +5049,19 @@
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E85" s="9" t="n">
-        <v>191.53</v>
+        <v>170.13</v>
       </c>
       <c r="F85" s="9" t="n">
-        <v>191.53</v>
+        <v>170.13</v>
       </c>
       <c r="G85" s="9" t="n">
-        <v>191.53</v>
+        <v>170.13</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I85" s="9" t="n">
         <v>0.0</v>
@@ -5087,19 +5090,19 @@
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E86" s="9" t="n">
-        <v>576.73</v>
+        <v>191.53</v>
       </c>
       <c r="F86" s="9" t="n">
-        <v>0.0</v>
+        <v>191.53</v>
       </c>
       <c r="G86" s="9" t="n">
-        <v>576.73</v>
+        <v>191.53</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I86" s="9" t="n">
         <v>0.0</v>
@@ -5108,7 +5111,7 @@
         <v>0.0</v>
       </c>
       <c r="K86" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L86" s="7" t="s">
         <v>48</v>
@@ -5128,19 +5131,19 @@
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E87" s="9" t="n">
-        <v>26.75</v>
+        <v>576.73</v>
       </c>
       <c r="F87" s="9" t="n">
-        <v>26.75</v>
+        <v>0.0</v>
       </c>
       <c r="G87" s="9" t="n">
-        <v>26.75</v>
+        <v>576.73</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I87" s="9" t="n">
         <v>0.0</v>
@@ -5149,7 +5152,7 @@
         <v>0.0</v>
       </c>
       <c r="K87" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L87" s="7" t="s">
         <v>48</v>
@@ -5159,7 +5162,7 @@
       </c>
       <c r="N87" s="7"/>
       <c r="O87" s="7" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88">
@@ -5169,19 +5172,19 @@
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E88" s="9" t="n">
-        <v>267.49</v>
+        <v>26.75</v>
       </c>
       <c r="F88" s="9" t="n">
-        <v>2139.92</v>
+        <v>26.75</v>
       </c>
       <c r="G88" s="9" t="n">
-        <v>267.49</v>
+        <v>26.75</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="I88" s="9" t="n">
         <v>0.0</v>
@@ -5190,7 +5193,7 @@
         <v>0.0</v>
       </c>
       <c r="K88" s="9" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="L88" s="7" t="s">
         <v>48</v>
@@ -5200,29 +5203,29 @@
       </c>
       <c r="N88" s="7"/>
       <c r="O88" s="7" t="s">
-        <v>210</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="7"/>
       <c r="B89" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E89" s="9" t="n">
-        <v>95.23</v>
+        <v>267.49</v>
       </c>
       <c r="F89" s="9" t="n">
-        <v>95.23</v>
+        <v>2139.92</v>
       </c>
       <c r="G89" s="9" t="n">
-        <v>95.23</v>
+        <v>267.49</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="I89" s="9" t="n">
         <v>0.0</v>
@@ -5231,7 +5234,7 @@
         <v>0.0</v>
       </c>
       <c r="K89" s="9" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>48</v>
@@ -5241,7 +5244,7 @@
       </c>
       <c r="N89" s="7"/>
       <c r="O89" s="7" t="s">
-        <v>54</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90">
@@ -5249,23 +5252,21 @@
       <c r="B90" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>213</v>
-      </c>
+      <c r="C90" s="7"/>
       <c r="D90" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E90" s="9" t="n">
-        <v>0.0</v>
+        <v>95.23</v>
       </c>
       <c r="F90" s="9" t="n">
-        <v>0.0</v>
+        <v>95.23</v>
       </c>
       <c r="G90" s="9" t="n">
-        <v>0.0</v>
+        <v>95.23</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I90" s="9" t="n">
         <v>0.0</v>
@@ -5284,29 +5285,31 @@
       </c>
       <c r="N90" s="7"/>
       <c r="O90" s="7" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="7"/>
       <c r="B91" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C91" s="7"/>
       <c r="D91" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E91" s="9" t="n">
-        <v>6.96</v>
+        <v>0.0</v>
       </c>
       <c r="F91" s="9" t="n">
-        <v>13.92</v>
+        <v>0.0</v>
       </c>
       <c r="G91" s="9" t="n">
-        <v>6.96</v>
+        <v>0.0</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="I91" s="9" t="n">
         <v>0.0</v>
@@ -5315,41 +5318,39 @@
         <v>0.0</v>
       </c>
       <c r="K91" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="M91" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N91" s="7"/>
       <c r="O91" s="7" t="s">
-        <v>216</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="7"/>
       <c r="B92" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>218</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C92" s="7"/>
       <c r="D92" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E92" s="9" t="n">
-        <v>255.73</v>
+        <v>6.96</v>
       </c>
       <c r="F92" s="9" t="n">
-        <v>255.73</v>
+        <v>13.92</v>
       </c>
       <c r="G92" s="9" t="n">
-        <v>255.73</v>
+        <v>6.96</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="I92" s="9" t="n">
         <v>0.0</v>
@@ -5358,41 +5359,41 @@
         <v>0.0</v>
       </c>
       <c r="K92" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="M92" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N92" s="7"/>
       <c r="O92" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C93" s="7"/>
       <c r="D93" s="7" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="E93" s="9" t="n">
-        <v>9.62</v>
+        <v>255.73</v>
       </c>
       <c r="F93" s="9" t="n">
-        <v>38.48</v>
+        <v>255.73</v>
       </c>
       <c r="G93" s="9" t="n">
-        <v>9.62</v>
+        <v>255.73</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="I93" s="9" t="n">
         <v>0.0</v>
@@ -5401,38 +5402,38 @@
         <v>0.0</v>
       </c>
       <c r="K93" s="9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="M93" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N93" s="7"/>
       <c r="O93" s="7" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="7"/>
+      <c r="A94" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="B94" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C94" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="E94" s="9" t="n">
-        <v>37.17</v>
+        <v>9.62</v>
       </c>
       <c r="F94" s="9" t="n">
-        <v>111.51</v>
+        <v>38.48</v>
       </c>
       <c r="G94" s="9" t="n">
-        <v>37.17</v>
+        <v>9.62</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>64</v>
@@ -5444,41 +5445,41 @@
         <v>0.0</v>
       </c>
       <c r="K94" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M94" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N94" s="7"/>
       <c r="O94" s="7" t="s">
-        <v>219</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C95" s="7"/>
       <c r="D95" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E95" s="9" t="n">
-        <v>17.64</v>
+        <v>37.17</v>
       </c>
       <c r="F95" s="9" t="n">
-        <v>35.28</v>
+        <v>111.51</v>
       </c>
       <c r="G95" s="9" t="n">
-        <v>17.64</v>
+        <v>37.17</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>215</v>
+        <v>64</v>
       </c>
       <c r="I95" s="9" t="n">
         <v>0.0</v>
@@ -5487,7 +5488,7 @@
         <v>0.0</v>
       </c>
       <c r="K95" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L95" s="7" t="s">
         <v>45</v>
@@ -5497,31 +5498,31 @@
       </c>
       <c r="N95" s="7"/>
       <c r="O95" s="7" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E96" s="9" t="n">
-        <v>6.94</v>
+        <v>17.64</v>
       </c>
       <c r="F96" s="9" t="n">
-        <v>69.4</v>
+        <v>35.28</v>
       </c>
       <c r="G96" s="9" t="n">
-        <v>6.94</v>
+        <v>17.64</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="I96" s="9" t="n">
         <v>0.0</v>
@@ -5530,10 +5531,10 @@
         <v>0.0</v>
       </c>
       <c r="K96" s="9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M96" s="7" t="s">
         <v>20</v>
@@ -5545,25 +5546,23 @@
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B97" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>231</v>
-      </c>
+      <c r="C97" s="7"/>
       <c r="D97" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E97" s="9" t="n">
-        <v>0.33</v>
+        <v>6.94</v>
       </c>
       <c r="F97" s="9" t="n">
-        <v>0.0</v>
+        <v>69.4</v>
       </c>
       <c r="G97" s="9" t="n">
-        <v>0.33</v>
+        <v>6.94</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>64</v>
@@ -5575,10 +5574,10 @@
         <v>0.0</v>
       </c>
       <c r="K97" s="9" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="M97" s="7" t="s">
         <v>20</v>
@@ -5589,68 +5588,70 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="7"/>
+      <c r="A98" s="7" t="s">
+        <v>230</v>
+      </c>
       <c r="B98" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E98" s="9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F98" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G98" s="9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I98" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J98" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K98" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L98" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E98" s="9" t="n">
-        <v>235.56</v>
-      </c>
-      <c r="F98" s="9" t="n">
-        <v>471.12</v>
-      </c>
-      <c r="G98" s="9" t="n">
-        <v>235.56</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="I98" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J98" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K98" s="9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L98" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M98" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N98" s="7"/>
       <c r="O98" s="7" t="s">
-        <v>235</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="7" t="s">
-        <v>236</v>
-      </c>
+      <c r="A99" s="7"/>
       <c r="B99" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E99" s="9" t="n">
-        <v>8.54</v>
+        <v>235.56</v>
       </c>
       <c r="F99" s="9" t="n">
-        <v>8.54</v>
+        <v>471.12</v>
       </c>
       <c r="G99" s="9" t="n">
-        <v>8.54</v>
+        <v>235.56</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>64</v>
+        <v>235</v>
       </c>
       <c r="I99" s="9" t="n">
         <v>0.0</v>
@@ -5659,39 +5660,41 @@
         <v>0.0</v>
       </c>
       <c r="K99" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M99" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N99" s="7"/>
       <c r="O99" s="7" t="s">
-        <v>54</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="7"/>
+      <c r="A100" s="7" t="s">
+        <v>237</v>
+      </c>
       <c r="B100" s="7" t="s">
         <v>238</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E100" s="9" t="n">
-        <v>266.75</v>
+        <v>8.54</v>
       </c>
       <c r="F100" s="9" t="n">
-        <v>266.75</v>
+        <v>8.54</v>
       </c>
       <c r="G100" s="9" t="n">
-        <v>266.75</v>
+        <v>8.54</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="I100" s="9" t="n">
         <v>0.0</v>
@@ -5703,38 +5706,36 @@
         <v>1.0</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="M100" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N100" s="7"/>
       <c r="O100" s="7" t="s">
-        <v>235</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E101" s="9" t="n">
-        <v>6.72</v>
+        <v>266.75</v>
       </c>
       <c r="F101" s="9" t="n">
-        <v>67.2</v>
+        <v>266.75</v>
       </c>
       <c r="G101" s="9" t="n">
-        <v>6.72</v>
+        <v>266.75</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>64</v>
+        <v>235</v>
       </c>
       <c r="I101" s="9" t="n">
         <v>0.0</v>
@@ -5743,41 +5744,41 @@
         <v>0.0</v>
       </c>
       <c r="K101" s="9" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M101" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N101" s="7"/>
       <c r="O101" s="7" t="s">
-        <v>54</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E102" s="9" t="n">
-        <v>12.82</v>
+        <v>6.72</v>
       </c>
       <c r="F102" s="9" t="n">
-        <v>25.64</v>
+        <v>60.48</v>
       </c>
       <c r="G102" s="9" t="n">
-        <v>12.82</v>
+        <v>6.72</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>215</v>
+        <v>64</v>
       </c>
       <c r="I102" s="9" t="n">
         <v>0.0</v>
@@ -5786,10 +5787,10 @@
         <v>0.0</v>
       </c>
       <c r="K102" s="9" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M102" s="7" t="s">
         <v>20</v>
@@ -5801,28 +5802,26 @@
     </row>
     <row r="103">
       <c r="A103" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>245</v>
-      </c>
+      <c r="C103" s="7"/>
       <c r="D103" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E103" s="9" t="n">
-        <v>13.89</v>
+        <v>12.82</v>
       </c>
       <c r="F103" s="9" t="n">
-        <v>125.01</v>
+        <v>25.64</v>
       </c>
       <c r="G103" s="9" t="n">
-        <v>13.89</v>
+        <v>12.82</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="I103" s="9" t="n">
         <v>0.0</v>
@@ -5831,10 +5830,10 @@
         <v>0.0</v>
       </c>
       <c r="K103" s="9" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M103" s="7" t="s">
         <v>20</v>
@@ -5845,22 +5844,26 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="7"/>
+      <c r="A104" s="7" t="s">
+        <v>244</v>
+      </c>
       <c r="B104" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C104" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C104" s="7"/>
       <c r="D104" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E104" s="9" t="n">
-        <v>0.91</v>
+        <v>13.89</v>
       </c>
       <c r="F104" s="9" t="n">
-        <v>1.82</v>
+        <v>125.01</v>
       </c>
       <c r="G104" s="9" t="n">
-        <v>0.91</v>
+        <v>13.89</v>
       </c>
       <c r="H104" s="7" t="s">
         <v>64</v>
@@ -5872,10 +5875,10 @@
         <v>0.0</v>
       </c>
       <c r="K104" s="9" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M104" s="7" t="s">
         <v>20</v>
@@ -5892,13 +5895,13 @@
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E105" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="F105" s="9" t="n">
-        <v>0.91</v>
+        <v>1.82</v>
       </c>
       <c r="G105" s="9" t="n">
         <v>0.91</v>
@@ -5913,7 +5916,7 @@
         <v>0.0</v>
       </c>
       <c r="K105" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L105" s="7" t="s">
         <v>45</v>
@@ -5933,7 +5936,7 @@
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E106" s="9" t="n">
         <v>0.91</v>
@@ -5974,13 +5977,13 @@
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E107" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="F107" s="9" t="n">
-        <v>0.0</v>
+        <v>0.91</v>
       </c>
       <c r="G107" s="9" t="n">
         <v>0.91</v>
@@ -5995,7 +5998,7 @@
         <v>0.0</v>
       </c>
       <c r="K107" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L107" s="7" t="s">
         <v>45</v>
@@ -6015,13 +6018,13 @@
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E108" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="F108" s="9" t="n">
-        <v>1.82</v>
+        <v>0.0</v>
       </c>
       <c r="G108" s="9" t="n">
         <v>0.91</v>
@@ -6036,7 +6039,7 @@
         <v>0.0</v>
       </c>
       <c r="K108" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="L108" s="7" t="s">
         <v>45</v>
@@ -6056,13 +6059,13 @@
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E109" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="F109" s="9" t="n">
-        <v>0.91</v>
+        <v>1.82</v>
       </c>
       <c r="G109" s="9" t="n">
         <v>0.91</v>
@@ -6077,7 +6080,7 @@
         <v>0.0</v>
       </c>
       <c r="K109" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L109" s="7" t="s">
         <v>45</v>
@@ -6097,13 +6100,13 @@
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E110" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="F110" s="9" t="n">
-        <v>1.82</v>
+        <v>0.91</v>
       </c>
       <c r="G110" s="9" t="n">
         <v>0.91</v>
@@ -6118,7 +6121,7 @@
         <v>0.0</v>
       </c>
       <c r="K110" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L110" s="7" t="s">
         <v>45</v>
@@ -6138,7 +6141,7 @@
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E111" s="9" t="n">
         <v>0.91</v>
@@ -6179,7 +6182,7 @@
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E112" s="9" t="n">
         <v>0.91</v>
@@ -6220,13 +6223,13 @@
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E113" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="F113" s="9" t="n">
-        <v>0.0</v>
+        <v>1.82</v>
       </c>
       <c r="G113" s="9" t="n">
         <v>0.91</v>
@@ -6241,7 +6244,7 @@
         <v>0.0</v>
       </c>
       <c r="K113" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L113" s="7" t="s">
         <v>45</v>
@@ -6259,23 +6262,21 @@
       <c r="B114" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C114" s="7" t="s">
-        <v>257</v>
-      </c>
+      <c r="C114" s="7"/>
       <c r="D114" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E114" s="9" t="n">
-        <v>37.45</v>
+        <v>0.91</v>
       </c>
       <c r="F114" s="9" t="n">
-        <v>187.25</v>
+        <v>0.0</v>
       </c>
       <c r="G114" s="9" t="n">
-        <v>37.45</v>
+        <v>0.91</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="I114" s="9" t="n">
         <v>0.0</v>
@@ -6284,43 +6285,41 @@
         <v>0.0</v>
       </c>
       <c r="K114" s="9" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="L114" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M114" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N114" s="7" t="s">
-        <v>258</v>
-      </c>
+      <c r="N114" s="7"/>
       <c r="O114" s="7" t="s">
-        <v>259</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="7"/>
       <c r="B115" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E115" s="9" t="n">
         <v>37.45</v>
       </c>
       <c r="F115" s="9" t="n">
-        <v>262.15</v>
+        <v>187.25</v>
       </c>
       <c r="G115" s="9" t="n">
         <v>37.45</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I115" s="9" t="n">
         <v>0.0</v>
@@ -6329,7 +6328,7 @@
         <v>0.0</v>
       </c>
       <c r="K115" s="9" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="L115" s="7" t="s">
         <v>31</v>
@@ -6338,76 +6337,78 @@
         <v>20</v>
       </c>
       <c r="N115" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="O115" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="O115" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="7" t="s">
+      <c r="C116" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E116" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="F116" s="9" t="n">
+        <v>262.15</v>
+      </c>
+      <c r="G116" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I116" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J116" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K116" s="9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="L116" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M116" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N116" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B116" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E116" s="9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="F116" s="9" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="G116" s="9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I116" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J116" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K116" s="9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="L116" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M116" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N116" s="7"/>
       <c r="O116" s="7" t="s">
-        <v>54</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C117" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B117" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C117" s="7"/>
       <c r="D117" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E117" s="9" t="n">
-        <v>7.64</v>
+        <v>3.2</v>
       </c>
       <c r="F117" s="9" t="n">
-        <v>15.28</v>
+        <v>19.2</v>
       </c>
       <c r="G117" s="9" t="n">
-        <v>7.64</v>
+        <v>3.2</v>
       </c>
       <c r="H117" s="7" t="s">
         <v>64</v>
@@ -6419,7 +6420,7 @@
         <v>0.0</v>
       </c>
       <c r="K117" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="L117" s="7" t="s">
         <v>45</v>
@@ -6433,27 +6434,27 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="7"/>
+      <c r="A118" s="7" t="s">
+        <v>266</v>
+      </c>
       <c r="B118" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C118" s="7" t="s">
-        <v>257</v>
-      </c>
+      <c r="C118" s="7"/>
       <c r="D118" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E118" s="9" t="n">
-        <v>37.45</v>
+        <v>7.64</v>
       </c>
       <c r="F118" s="9" t="n">
-        <v>561.75</v>
+        <v>15.28</v>
       </c>
       <c r="G118" s="9" t="n">
-        <v>37.45</v>
+        <v>7.64</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>268</v>
+        <v>64</v>
       </c>
       <c r="I118" s="9" t="n">
         <v>0.0</v>
@@ -6462,39 +6463,41 @@
         <v>0.0</v>
       </c>
       <c r="K118" s="9" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="L118" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M118" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N118" s="7"/>
-      <c r="O118" s="7"/>
+      <c r="O118" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="7"/>
       <c r="B119" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E119" s="9" t="n">
         <v>37.45</v>
       </c>
       <c r="F119" s="9" t="n">
-        <v>262.15</v>
+        <v>561.75</v>
       </c>
       <c r="G119" s="9" t="n">
         <v>37.45</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="I119" s="9" t="n">
         <v>0.0</v>
@@ -6503,7 +6506,7 @@
         <v>0.0</v>
       </c>
       <c r="K119" s="9" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="L119" s="7" t="s">
         <v>31</v>
@@ -6511,119 +6514,119 @@
       <c r="M119" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N119" s="7" t="s">
+      <c r="N119" s="7"/>
+      <c r="O119" s="7"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="O119" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="7" t="s">
+      <c r="C120" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E120" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="F120" s="9" t="n">
+        <v>262.15</v>
+      </c>
+      <c r="G120" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I120" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J120" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K120" s="9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="L120" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M120" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N120" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="O120" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E120" s="9" t="n">
-        <v>8.53</v>
-      </c>
-      <c r="F120" s="9" t="n">
-        <v>42.65</v>
-      </c>
-      <c r="G120" s="9" t="n">
-        <v>8.53</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I120" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J120" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K120" s="9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L120" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M120" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N120" s="7" t="s">
+      <c r="B121" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="O120" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E121" s="9" t="n">
+        <v>8.53</v>
+      </c>
+      <c r="F121" s="9" t="n">
+        <v>42.65</v>
+      </c>
+      <c r="G121" s="9" t="n">
+        <v>8.53</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I121" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J121" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K121" s="9" t="n">
         <v>5.0</v>
       </c>
-      <c r="F121" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G121" s="9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I121" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J121" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K121" s="9" t="n">
-        <v>0.0</v>
-      </c>
       <c r="L121" s="7" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="M121" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N121" s="7"/>
-      <c r="O121" s="7"/>
+      <c r="N121" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="O121" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="7"/>
+      <c r="B122" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E122" s="9" t="n">
-        <v>272.85</v>
+        <v>5.0</v>
       </c>
       <c r="F122" s="9" t="n">
-        <v>545.7</v>
+        <v>0.0</v>
       </c>
       <c r="G122" s="9" t="n">
-        <v>272.85</v>
+        <v>5.0</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="I122" s="9" t="n">
         <v>0.0</v>
@@ -6632,7 +6635,7 @@
         <v>0.0</v>
       </c>
       <c r="K122" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="L122" s="7" t="s">
         <v>48</v>
@@ -6641,30 +6644,30 @@
         <v>20</v>
       </c>
       <c r="N122" s="7"/>
-      <c r="O122" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="O122" s="7"/>
     </row>
     <row r="123">
-      <c r="A123" s="7"/>
+      <c r="A123" s="7" t="s">
+        <v>276</v>
+      </c>
       <c r="B123" s="7" t="s">
         <v>277</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E123" s="9" t="n">
-        <v>55.64</v>
+        <v>272.85</v>
       </c>
       <c r="F123" s="9" t="n">
-        <v>0.0</v>
+        <v>545.7</v>
       </c>
       <c r="G123" s="9" t="n">
-        <v>55.64</v>
+        <v>272.85</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I123" s="9" t="n">
         <v>0.0</v>
@@ -6673,43 +6676,39 @@
         <v>0.0</v>
       </c>
       <c r="K123" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L123" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M123" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N123" s="7" t="s">
+      <c r="N123" s="7"/>
+      <c r="O123" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="7"/>
+      <c r="B124" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="O123" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E124" s="9" t="n">
-        <v>373.43</v>
+        <v>55.64</v>
       </c>
       <c r="F124" s="9" t="n">
-        <v>746.86</v>
+        <v>0.0</v>
       </c>
       <c r="G124" s="9" t="n">
-        <v>373.43</v>
+        <v>55.64</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I124" s="9" t="n">
         <v>0.0</v>
@@ -6718,29 +6717,31 @@
         <v>0.0</v>
       </c>
       <c r="K124" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="L124" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M124" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N124" s="7"/>
+      <c r="N124" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="O124" s="7" t="s">
-        <v>54</v>
+        <v>280</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E125" s="9" t="n">
         <v>373.43</v>
@@ -6752,7 +6753,7 @@
         <v>373.43</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I125" s="9" t="n">
         <v>0.0</v>
@@ -6775,25 +6776,27 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="7"/>
+      <c r="A126" s="7" t="s">
+        <v>283</v>
+      </c>
       <c r="B126" s="7" t="s">
         <v>284</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E126" s="9" t="n">
-        <v>5.34</v>
+        <v>373.43</v>
       </c>
       <c r="F126" s="9" t="n">
-        <v>10.68</v>
+        <v>373.43</v>
       </c>
       <c r="G126" s="9" t="n">
-        <v>5.34</v>
+        <v>373.43</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>64</v>
+        <v>235</v>
       </c>
       <c r="I126" s="9" t="n">
         <v>0.0</v>
@@ -6802,10 +6805,10 @@
         <v>0.0</v>
       </c>
       <c r="K126" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L126" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M126" s="7" t="s">
         <v>20</v>
@@ -6816,26 +6819,26 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="7"/>
+      <c r="B127" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E127" s="9" t="n">
-        <v>255.0</v>
+        <v>5.34</v>
       </c>
       <c r="F127" s="9" t="n">
-        <v>510.0</v>
+        <v>10.68</v>
       </c>
       <c r="G127" s="9" t="n">
-        <v>255.0</v>
-      </c>
-      <c r="H127" s="7"/>
+        <v>5.34</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="I127" s="9" t="n">
         <v>0.0</v>
       </c>
@@ -6846,7 +6849,7 @@
         <v>2.0</v>
       </c>
       <c r="L127" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M127" s="7" t="s">
         <v>20</v>
@@ -6857,26 +6860,26 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="7"/>
+      <c r="A128" s="7" t="s">
+        <v>286</v>
+      </c>
       <c r="B128" s="7" t="s">
         <v>287</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E128" s="9" t="n">
-        <v>7.29</v>
+        <v>255.0</v>
       </c>
       <c r="F128" s="9" t="n">
-        <v>0.0</v>
+        <v>510.0</v>
       </c>
       <c r="G128" s="9" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>64</v>
-      </c>
+        <v>255.0</v>
+      </c>
+      <c r="H128" s="7"/>
       <c r="I128" s="9" t="n">
         <v>0.0</v>
       </c>
@@ -6884,17 +6887,17 @@
         <v>0.0</v>
       </c>
       <c r="K128" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L128" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M128" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N128" s="7"/>
       <c r="O128" s="7" t="s">
-        <v>216</v>
+        <v>54</v>
       </c>
     </row>
     <row r="129">
@@ -6902,23 +6905,21 @@
       <c r="B129" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C129" s="7" t="s">
-        <v>257</v>
-      </c>
+      <c r="C129" s="7"/>
       <c r="D129" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E129" s="9" t="n">
-        <v>20.0</v>
+        <v>7.29</v>
       </c>
       <c r="F129" s="9" t="n">
-        <v>120.0</v>
+        <v>0.0</v>
       </c>
       <c r="G129" s="9" t="n">
-        <v>20.0</v>
+        <v>7.29</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="I129" s="9" t="n">
         <v>0.0</v>
@@ -6927,7 +6928,7 @@
         <v>0.0</v>
       </c>
       <c r="K129" s="9" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="L129" s="7" t="s">
         <v>31</v>
@@ -6935,35 +6936,33 @@
       <c r="M129" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N129" s="7" t="s">
-        <v>289</v>
-      </c>
+      <c r="N129" s="7"/>
       <c r="O129" s="7" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="7"/>
       <c r="B130" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E130" s="9" t="n">
-        <v>10.69</v>
+        <v>20.0</v>
       </c>
       <c r="F130" s="9" t="n">
-        <v>96.21</v>
+        <v>120.0</v>
       </c>
       <c r="G130" s="9" t="n">
-        <v>10.69</v>
+        <v>20.0</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I130" s="9" t="n">
         <v>0.0</v>
@@ -6972,7 +6971,7 @@
         <v>0.0</v>
       </c>
       <c r="K130" s="9" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="L130" s="7" t="s">
         <v>31</v>
@@ -6981,76 +6980,78 @@
         <v>20</v>
       </c>
       <c r="N130" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="O130" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="7"/>
+      <c r="B131" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="O130" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="7" t="s">
+      <c r="C131" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E131" s="9" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="F131" s="9" t="n">
+        <v>96.21</v>
+      </c>
+      <c r="G131" s="9" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I131" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J131" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K131" s="9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="L131" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M131" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N131" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B131" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="E131" s="9" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="F131" s="9" t="n">
-        <v>47.04</v>
-      </c>
-      <c r="G131" s="9" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I131" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J131" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K131" s="9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L131" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M131" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N131" s="7"/>
       <c r="O131" s="7" t="s">
-        <v>54</v>
+        <v>260</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D132" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B132" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="E132" s="9" t="n">
-        <v>3.19</v>
+        <v>11.76</v>
       </c>
       <c r="F132" s="9" t="n">
-        <v>9.57</v>
+        <v>47.04</v>
       </c>
       <c r="G132" s="9" t="n">
-        <v>3.19</v>
+        <v>11.76</v>
       </c>
       <c r="H132" s="7" t="s">
         <v>64</v>
@@ -7062,10 +7063,10 @@
         <v>0.0</v>
       </c>
       <c r="K132" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L132" s="7" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="M132" s="7" t="s">
         <v>20</v>
@@ -7077,23 +7078,23 @@
     </row>
     <row r="133">
       <c r="A133" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E133" s="9" t="n">
-        <v>3.83</v>
+        <v>3.19</v>
       </c>
       <c r="F133" s="9" t="n">
-        <v>7.66</v>
+        <v>9.57</v>
       </c>
       <c r="G133" s="9" t="n">
-        <v>3.83</v>
+        <v>3.19</v>
       </c>
       <c r="H133" s="7" t="s">
         <v>64</v>
@@ -7105,7 +7106,7 @@
         <v>0.0</v>
       </c>
       <c r="K133" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L133" s="7" t="s">
         <v>45</v>
@@ -7120,26 +7121,26 @@
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B134" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E134" s="9" t="n">
-        <v>127.33</v>
+        <v>3.83</v>
       </c>
       <c r="F134" s="9" t="n">
-        <v>254.66</v>
+        <v>7.66</v>
       </c>
       <c r="G134" s="9" t="n">
-        <v>127.33</v>
+        <v>3.83</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="I134" s="9" t="n">
         <v>0.0</v>
@@ -7163,26 +7164,26 @@
     </row>
     <row r="135">
       <c r="A135" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E135" s="9" t="n">
         <v>127.33</v>
       </c>
       <c r="F135" s="9" t="n">
-        <v>127.33</v>
+        <v>254.66</v>
       </c>
       <c r="G135" s="9" t="n">
         <v>127.33</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I135" s="9" t="n">
         <v>0.0</v>
@@ -7191,7 +7192,7 @@
         <v>0.0</v>
       </c>
       <c r="K135" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L135" s="7" t="s">
         <v>45</v>
@@ -7206,26 +7207,26 @@
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B136" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E136" s="9" t="n">
-        <v>11.22</v>
+        <v>127.33</v>
       </c>
       <c r="F136" s="9" t="n">
-        <v>33.66</v>
+        <v>127.33</v>
       </c>
       <c r="G136" s="9" t="n">
-        <v>11.22</v>
+        <v>127.33</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I136" s="9" t="n">
         <v>0.0</v>
@@ -7234,7 +7235,7 @@
         <v>0.0</v>
       </c>
       <c r="K136" s="9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="L136" s="7" t="s">
         <v>45</v>
@@ -7242,35 +7243,33 @@
       <c r="M136" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N136" s="7" t="s">
-        <v>306</v>
-      </c>
+      <c r="N136" s="7"/>
       <c r="O136" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E137" s="9" t="n">
-        <v>10.15</v>
+        <v>11.22</v>
       </c>
       <c r="F137" s="9" t="n">
-        <v>81.2</v>
+        <v>33.66</v>
       </c>
       <c r="G137" s="9" t="n">
-        <v>10.15</v>
+        <v>11.22</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I137" s="9" t="n">
         <v>0.0</v>
@@ -7279,16 +7278,16 @@
         <v>0.0</v>
       </c>
       <c r="K137" s="9" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="L137" s="7" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="M137" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N137" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O137" s="7" t="s">
         <v>54</v>
@@ -7296,26 +7295,26 @@
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E138" s="9" t="n">
-        <v>10.68</v>
+        <v>10.15</v>
       </c>
       <c r="F138" s="9" t="n">
-        <v>53.4</v>
+        <v>71.05</v>
       </c>
       <c r="G138" s="9" t="n">
-        <v>10.68</v>
+        <v>10.15</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>64</v>
+        <v>235</v>
       </c>
       <c r="I138" s="9" t="n">
         <v>0.0</v>
@@ -7324,41 +7323,43 @@
         <v>0.0</v>
       </c>
       <c r="K138" s="9" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="L138" s="7" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="M138" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N138" s="7"/>
+      <c r="N138" s="7" t="s">
+        <v>310</v>
+      </c>
       <c r="O138" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E139" s="9" t="n">
-        <v>46.86</v>
+        <v>10.68</v>
       </c>
       <c r="F139" s="9" t="n">
-        <v>93.72</v>
+        <v>53.4</v>
       </c>
       <c r="G139" s="9" t="n">
-        <v>46.86</v>
+        <v>10.68</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>314</v>
+        <v>64</v>
       </c>
       <c r="I139" s="9" t="n">
         <v>0.0</v>
@@ -7367,10 +7368,10 @@
         <v>0.0</v>
       </c>
       <c r="K139" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="L139" s="7" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="M139" s="7" t="s">
         <v>20</v>
@@ -7382,29 +7383,27 @@
     </row>
     <row r="140">
       <c r="A140" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E140" s="9" t="n">
+        <v>46.86</v>
+      </c>
+      <c r="F140" s="9" t="n">
+        <v>93.72</v>
+      </c>
+      <c r="G140" s="9" t="n">
+        <v>46.86</v>
+      </c>
+      <c r="H140" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="B140" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="E140" s="9" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="F140" s="9" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="G140" s="9" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="H140" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="I140" s="9" t="n">
         <v>0.0</v>
       </c>
@@ -7412,10 +7411,10 @@
         <v>0.0</v>
       </c>
       <c r="K140" s="9" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="L140" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M140" s="7" t="s">
         <v>20</v>
@@ -7427,25 +7426,25 @@
     </row>
     <row r="141">
       <c r="A141" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C141" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B141" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>317</v>
-      </c>
       <c r="D141" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E141" s="9" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="F141" s="9" t="n">
-        <v>6.08</v>
+        <v>3.51</v>
       </c>
       <c r="G141" s="9" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>64</v>
@@ -7457,7 +7456,7 @@
         <v>0.0</v>
       </c>
       <c r="K141" s="9" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="L141" s="7" t="s">
         <v>31</v>
@@ -7472,26 +7471,28 @@
     </row>
     <row r="142">
       <c r="A142" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B142" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="C142" s="7"/>
+      <c r="C142" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="D142" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E142" s="9" t="n">
-        <v>35.67</v>
+        <v>0.38</v>
       </c>
       <c r="F142" s="9" t="n">
-        <v>71.34</v>
+        <v>6.08</v>
       </c>
       <c r="G142" s="9" t="n">
-        <v>35.67</v>
+        <v>0.38</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="I142" s="9" t="n">
         <v>0.0</v>
@@ -7500,10 +7501,10 @@
         <v>0.0</v>
       </c>
       <c r="K142" s="9" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="L142" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M142" s="7" t="s">
         <v>20</v>
@@ -7515,26 +7516,26 @@
     </row>
     <row r="143">
       <c r="A143" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B143" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E143" s="9" t="n">
-        <v>12.82</v>
+        <v>35.67</v>
       </c>
       <c r="F143" s="9" t="n">
-        <v>51.28</v>
+        <v>71.34</v>
       </c>
       <c r="G143" s="9" t="n">
-        <v>12.82</v>
+        <v>35.67</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="I143" s="9" t="n">
         <v>0.0</v>
@@ -7543,10 +7544,10 @@
         <v>0.0</v>
       </c>
       <c r="K143" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="L143" s="7" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="M143" s="7" t="s">
         <v>20</v>
@@ -7558,23 +7559,23 @@
     </row>
     <row r="144">
       <c r="A144" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B144" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E144" s="9" t="n">
-        <v>12.29</v>
+        <v>12.82</v>
       </c>
       <c r="F144" s="9" t="n">
-        <v>98.32</v>
+        <v>51.28</v>
       </c>
       <c r="G144" s="9" t="n">
-        <v>12.29</v>
+        <v>12.82</v>
       </c>
       <c r="H144" s="7" t="s">
         <v>64</v>
@@ -7586,10 +7587,10 @@
         <v>0.0</v>
       </c>
       <c r="K144" s="9" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="L144" s="7" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="M144" s="7" t="s">
         <v>20</v>
@@ -7601,23 +7602,23 @@
     </row>
     <row r="145">
       <c r="A145" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B145" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="C145" s="7"/>
       <c r="D145" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E145" s="9" t="n">
-        <v>14.41</v>
+        <v>12.29</v>
       </c>
       <c r="F145" s="9" t="n">
-        <v>28.82</v>
+        <v>98.32</v>
       </c>
       <c r="G145" s="9" t="n">
-        <v>14.41</v>
+        <v>12.29</v>
       </c>
       <c r="H145" s="7" t="s">
         <v>64</v>
@@ -7629,10 +7630,10 @@
         <v>0.0</v>
       </c>
       <c r="K145" s="9" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="L145" s="7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M145" s="7" t="s">
         <v>20</v>
@@ -7644,25 +7645,23 @@
     </row>
     <row r="146">
       <c r="A146" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B146" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B146" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>330</v>
-      </c>
+      <c r="C146" s="7"/>
       <c r="D146" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E146" s="9" t="n">
-        <v>10.15</v>
+        <v>14.41</v>
       </c>
       <c r="F146" s="9" t="n">
-        <v>10.15</v>
+        <v>28.82</v>
       </c>
       <c r="G146" s="9" t="n">
-        <v>10.15</v>
+        <v>14.41</v>
       </c>
       <c r="H146" s="7" t="s">
         <v>64</v>
@@ -7674,10 +7673,10 @@
         <v>0.0</v>
       </c>
       <c r="K146" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L146" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M146" s="7" t="s">
         <v>20</v>
@@ -7689,28 +7688,28 @@
     </row>
     <row r="147">
       <c r="A147" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C147" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B147" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="D147" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E147" s="9" t="n">
-        <v>22.79</v>
+        <v>10.15</v>
       </c>
       <c r="F147" s="9" t="n">
-        <v>205.11</v>
+        <v>10.15</v>
       </c>
       <c r="G147" s="9" t="n">
-        <v>22.79</v>
+        <v>10.15</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="I147" s="9" t="n">
         <v>0.0</v>
@@ -7719,43 +7718,43 @@
         <v>0.0</v>
       </c>
       <c r="K147" s="9" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="L147" s="7" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="M147" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N147" s="7"/>
       <c r="O147" s="7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C148" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B148" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>317</v>
-      </c>
       <c r="D148" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E148" s="9" t="n">
-        <v>0.39</v>
+        <v>22.79</v>
       </c>
       <c r="F148" s="9" t="n">
-        <v>5.07</v>
+        <v>205.11</v>
       </c>
       <c r="G148" s="9" t="n">
-        <v>0.39</v>
+        <v>22.79</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>64</v>
+        <v>235</v>
       </c>
       <c r="I148" s="9" t="n">
         <v>0.0</v>
@@ -7764,40 +7763,40 @@
         <v>0.0</v>
       </c>
       <c r="K148" s="9" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="L148" s="7" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="M148" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N148" s="7"/>
       <c r="O148" s="7" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B149" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B149" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="C149" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E149" s="9" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="F149" s="9" t="n">
-        <v>3.8</v>
+        <v>5.07</v>
       </c>
       <c r="G149" s="9" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="H149" s="7" t="s">
         <v>64</v>
@@ -7809,7 +7808,7 @@
         <v>0.0</v>
       </c>
       <c r="K149" s="9" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="L149" s="7" t="s">
         <v>31</v>
@@ -7824,23 +7823,25 @@
     </row>
     <row r="150">
       <c r="A150" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B150" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B150" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C150" s="7"/>
+      <c r="C150" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="D150" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E150" s="9" t="n">
-        <v>7.46</v>
+        <v>0.38</v>
       </c>
       <c r="F150" s="9" t="n">
-        <v>59.68</v>
+        <v>3.8</v>
       </c>
       <c r="G150" s="9" t="n">
-        <v>7.46</v>
+        <v>0.38</v>
       </c>
       <c r="H150" s="7" t="s">
         <v>64</v>
@@ -7852,10 +7853,10 @@
         <v>0.0</v>
       </c>
       <c r="K150" s="9" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="L150" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M150" s="7" t="s">
         <v>20</v>
@@ -7867,23 +7868,23 @@
     </row>
     <row r="151">
       <c r="A151" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B151" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="C151" s="7"/>
       <c r="D151" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E151" s="9" t="n">
-        <v>3.19</v>
+        <v>7.46</v>
       </c>
       <c r="F151" s="9" t="n">
-        <v>15.95</v>
+        <v>59.68</v>
       </c>
       <c r="G151" s="9" t="n">
-        <v>3.19</v>
+        <v>7.46</v>
       </c>
       <c r="H151" s="7" t="s">
         <v>64</v>
@@ -7895,10 +7896,10 @@
         <v>0.0</v>
       </c>
       <c r="K151" s="9" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="L151" s="7" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="M151" s="7" t="s">
         <v>20</v>
@@ -7910,23 +7911,23 @@
     </row>
     <row r="152">
       <c r="A152" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B152" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E152" s="9" t="n">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
       <c r="F152" s="9" t="n">
-        <v>15.9</v>
+        <v>15.95</v>
       </c>
       <c r="G152" s="9" t="n">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
       <c r="H152" s="7" t="s">
         <v>64</v>
@@ -7941,7 +7942,7 @@
         <v>5.0</v>
       </c>
       <c r="L152" s="7" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="M152" s="7" t="s">
         <v>20</v>
@@ -7953,25 +7954,23 @@
     </row>
     <row r="153">
       <c r="A153" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="C153" s="7" t="s">
-        <v>345</v>
-      </c>
+      <c r="C153" s="7"/>
       <c r="D153" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E153" s="9" t="n">
-        <v>2.13</v>
+        <v>3.18</v>
       </c>
       <c r="F153" s="9" t="n">
-        <v>0.0</v>
+        <v>15.9</v>
       </c>
       <c r="G153" s="9" t="n">
-        <v>2.13</v>
+        <v>3.18</v>
       </c>
       <c r="H153" s="7" t="s">
         <v>64</v>
@@ -7983,10 +7982,10 @@
         <v>0.0</v>
       </c>
       <c r="K153" s="9" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="L153" s="7" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="M153" s="7" t="s">
         <v>20</v>
@@ -7998,23 +7997,25 @@
     </row>
     <row r="154">
       <c r="A154" s="7" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="B154" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C154" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="C154" s="7"/>
       <c r="D154" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E154" s="9" t="n">
-        <v>11.76</v>
+        <v>2.13</v>
       </c>
       <c r="F154" s="9" t="n">
-        <v>35.28</v>
+        <v>0.0</v>
       </c>
       <c r="G154" s="9" t="n">
-        <v>11.76</v>
+        <v>2.13</v>
       </c>
       <c r="H154" s="7" t="s">
         <v>64</v>
@@ -8026,10 +8027,10 @@
         <v>0.0</v>
       </c>
       <c r="K154" s="9" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="L154" s="7" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="M154" s="7" t="s">
         <v>20</v>
@@ -8041,26 +8042,26 @@
     </row>
     <row r="155">
       <c r="A155" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="7" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="E155" s="9" t="n">
-        <v>3.95</v>
+        <v>11.76</v>
       </c>
       <c r="F155" s="9" t="n">
-        <v>7.9</v>
+        <v>35.28</v>
       </c>
       <c r="G155" s="9" t="n">
-        <v>3.95</v>
+        <v>11.76</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>350</v>
+        <v>64</v>
       </c>
       <c r="I155" s="9" t="n">
         <v>0.0</v>
@@ -8069,10 +8070,10 @@
         <v>0.0</v>
       </c>
       <c r="K155" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L155" s="7" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="M155" s="7" t="s">
         <v>20</v>
@@ -8084,26 +8085,26 @@
     </row>
     <row r="156">
       <c r="A156" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E156" s="9" t="n">
-        <v>8.55</v>
+        <v>3.95</v>
       </c>
       <c r="F156" s="9" t="n">
-        <v>42.75</v>
+        <v>7.9</v>
       </c>
       <c r="G156" s="9" t="n">
-        <v>8.55</v>
+        <v>3.95</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I156" s="9" t="n">
         <v>0.0</v>
@@ -8112,10 +8113,10 @@
         <v>0.0</v>
       </c>
       <c r="K156" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="L156" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M156" s="7" t="s">
         <v>20</v>
@@ -8127,37 +8128,35 @@
     </row>
     <row r="157">
       <c r="A157" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B157" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B157" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>355</v>
-      </c>
+      <c r="C157" s="7"/>
       <c r="D157" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E157" s="9" t="n">
-        <v>8.24</v>
+        <v>8.55</v>
       </c>
       <c r="F157" s="9" t="n">
-        <v>49.44</v>
+        <v>25.65</v>
       </c>
       <c r="G157" s="9" t="n">
-        <v>8.98</v>
+        <v>8.55</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I157" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="J157" s="9" t="n">
-        <v>0.74</v>
+        <v>0.0</v>
       </c>
       <c r="K157" s="9" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="L157" s="7" t="s">
         <v>25</v>
@@ -8167,121 +8166,123 @@
       </c>
       <c r="N157" s="7"/>
       <c r="O157" s="7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C158" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="B158" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>357</v>
-      </c>
       <c r="D158" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E158" s="9" t="n">
-        <v>5.99</v>
+        <v>8.24</v>
       </c>
       <c r="F158" s="9" t="n">
-        <v>35.94</v>
+        <v>49.44</v>
       </c>
       <c r="G158" s="9" t="n">
-        <v>6.59</v>
+        <v>8.98</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I158" s="9" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="J158" s="9" t="n">
-        <v>0.0</v>
+        <v>0.74</v>
       </c>
       <c r="K158" s="9" t="n">
         <v>6.0</v>
       </c>
       <c r="L158" s="7" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="M158" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N158" s="7" t="s">
-        <v>358</v>
-      </c>
+      <c r="N158" s="7"/>
       <c r="O158" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E159" s="9" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F159" s="9" t="n">
+        <v>35.94</v>
+      </c>
+      <c r="G159" s="9" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="I159" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J159" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K159" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L159" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M159" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N159" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="B159" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="E159" s="9" t="n">
-        <v>9.62</v>
-      </c>
-      <c r="F159" s="9" t="n">
-        <v>19.24</v>
-      </c>
-      <c r="G159" s="9" t="n">
-        <v>9.62</v>
-      </c>
-      <c r="H159" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="I159" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J159" s="9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K159" s="9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L159" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M159" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N159" s="7"/>
       <c r="O159" s="7" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B160" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E160" s="9" t="n">
-        <v>12.27</v>
+        <v>9.62</v>
       </c>
       <c r="F160" s="9" t="n">
-        <v>49.08</v>
+        <v>19.24</v>
       </c>
       <c r="G160" s="9" t="n">
-        <v>12.27</v>
+        <v>9.62</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I160" s="9" t="n">
         <v>0.0</v>
@@ -8290,10 +8291,10 @@
         <v>0.0</v>
       </c>
       <c r="K160" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="L160" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M160" s="7" t="s">
         <v>20</v>
@@ -8305,26 +8306,26 @@
     </row>
     <row r="161">
       <c r="A161" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B161" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E161" s="9" t="n">
-        <v>4.78</v>
+        <v>12.27</v>
       </c>
       <c r="F161" s="9" t="n">
-        <v>9.56</v>
+        <v>49.08</v>
       </c>
       <c r="G161" s="9" t="n">
-        <v>4.78</v>
+        <v>12.27</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I161" s="9" t="n">
         <v>0.0</v>
@@ -8333,10 +8334,10 @@
         <v>0.0</v>
       </c>
       <c r="K161" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="L161" s="7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M161" s="7" t="s">
         <v>20</v>
@@ -8347,25 +8348,27 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="7"/>
+      <c r="A162" s="7" t="s">
+        <v>364</v>
+      </c>
       <c r="B162" s="7" t="s">
         <v>365</v>
       </c>
       <c r="C162" s="7"/>
       <c r="D162" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E162" s="9" t="n">
-        <v>21.2</v>
+        <v>4.78</v>
       </c>
       <c r="F162" s="9" t="n">
-        <v>106.0</v>
+        <v>9.56</v>
       </c>
       <c r="G162" s="9" t="n">
-        <v>21.2</v>
+        <v>4.78</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I162" s="9" t="n">
         <v>0.0</v>
@@ -8374,10 +8377,10 @@
         <v>0.0</v>
       </c>
       <c r="K162" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="L162" s="7" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="M162" s="7" t="s">
         <v>20</v>
@@ -8388,27 +8391,25 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="7" t="s">
+      <c r="A163" s="7"/>
+      <c r="B163" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E163" s="9" t="n">
-        <v>10.56</v>
+        <v>21.2</v>
       </c>
       <c r="F163" s="9" t="n">
-        <v>52.8</v>
+        <v>106.0</v>
       </c>
       <c r="G163" s="9" t="n">
-        <v>10.56</v>
+        <v>21.2</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I163" s="9" t="n">
         <v>0.0</v>
@@ -8420,38 +8421,38 @@
         <v>5.0</v>
       </c>
       <c r="L163" s="7" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="M163" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N163" s="7"/>
       <c r="O163" s="7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B164" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E164" s="9" t="n">
-        <v>21.39</v>
+        <v>10.56</v>
       </c>
       <c r="F164" s="9" t="n">
-        <v>42.78</v>
+        <v>52.8</v>
       </c>
       <c r="G164" s="9" t="n">
-        <v>21.39</v>
+        <v>10.56</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="I164" s="9" t="n">
         <v>0.0</v>
@@ -8460,43 +8461,41 @@
         <v>0.0</v>
       </c>
       <c r="K164" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="L164" s="7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M164" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N164" s="7" t="s">
-        <v>371</v>
-      </c>
+      <c r="N164" s="7"/>
       <c r="O164" s="7" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E165" s="9" t="n">
-        <v>6.41</v>
+        <v>21.39</v>
       </c>
       <c r="F165" s="9" t="n">
-        <v>32.05</v>
+        <v>42.78</v>
       </c>
       <c r="G165" s="9" t="n">
-        <v>6.41</v>
+        <v>21.39</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="I165" s="9" t="n">
         <v>0.0</v>
@@ -8505,41 +8504,43 @@
         <v>0.0</v>
       </c>
       <c r="K165" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="L165" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M165" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N165" s="7"/>
+      <c r="N165" s="7" t="s">
+        <v>372</v>
+      </c>
       <c r="O165" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B166" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="C166" s="7"/>
       <c r="D166" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E166" s="9" t="n">
-        <v>11.76</v>
+        <v>6.41</v>
       </c>
       <c r="F166" s="9" t="n">
-        <v>35.28</v>
+        <v>32.05</v>
       </c>
       <c r="G166" s="9" t="n">
-        <v>11.76</v>
+        <v>6.41</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I166" s="9" t="n">
         <v>0.0</v>
@@ -8548,10 +8549,10 @@
         <v>0.0</v>
       </c>
       <c r="K166" s="9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L166" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M166" s="7" t="s">
         <v>20</v>
@@ -8563,26 +8564,26 @@
     </row>
     <row r="167">
       <c r="A167" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B167" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E167" s="9" t="n">
-        <v>6.41</v>
+        <v>11.76</v>
       </c>
       <c r="F167" s="9" t="n">
-        <v>32.05</v>
+        <v>35.28</v>
       </c>
       <c r="G167" s="9" t="n">
-        <v>6.41</v>
+        <v>11.76</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I167" s="9" t="n">
         <v>0.0</v>
@@ -8591,10 +8592,10 @@
         <v>0.0</v>
       </c>
       <c r="K167" s="9" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="L167" s="7" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="M167" s="7" t="s">
         <v>20</v>
@@ -8606,28 +8607,26 @@
     </row>
     <row r="168">
       <c r="A168" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B168" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B168" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>156</v>
-      </c>
+      <c r="C168" s="7"/>
       <c r="D168" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E168" s="9" t="n">
-        <v>1.31</v>
+        <v>6.41</v>
       </c>
       <c r="F168" s="9" t="n">
-        <v>5.24</v>
+        <v>32.05</v>
       </c>
       <c r="G168" s="9" t="n">
-        <v>1.31</v>
+        <v>6.41</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I168" s="9" t="n">
         <v>0.0</v>
@@ -8636,41 +8635,43 @@
         <v>0.0</v>
       </c>
       <c r="K168" s="9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L168" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M168" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N168" s="7"/>
       <c r="O168" s="7" t="s">
-        <v>380</v>
+        <v>54</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="C169" s="7"/>
+        <v>380</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="D169" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E169" s="9" t="n">
-        <v>9.61</v>
+        <v>1.31</v>
       </c>
       <c r="F169" s="9" t="n">
-        <v>48.05</v>
+        <v>5.24</v>
       </c>
       <c r="G169" s="9" t="n">
-        <v>9.61</v>
+        <v>1.31</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I169" s="9" t="n">
         <v>0.0</v>
@@ -8679,43 +8680,41 @@
         <v>0.0</v>
       </c>
       <c r="K169" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="L169" s="7" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="M169" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N169" s="7"/>
       <c r="O169" s="7" t="s">
-        <v>54</v>
+        <v>381</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B170" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B170" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="C170" s="7"/>
       <c r="D170" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E170" s="9" t="n">
-        <v>4.26</v>
+        <v>9.61</v>
       </c>
       <c r="F170" s="9" t="n">
-        <v>25.56</v>
+        <v>48.05</v>
       </c>
       <c r="G170" s="9" t="n">
-        <v>4.26</v>
+        <v>9.61</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I170" s="9" t="n">
         <v>0.0</v>
@@ -8724,10 +8723,10 @@
         <v>0.0</v>
       </c>
       <c r="K170" s="9" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="L170" s="7" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="M170" s="7" t="s">
         <v>20</v>
@@ -8739,26 +8738,28 @@
     </row>
     <row r="171">
       <c r="A171" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B171" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B171" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="C171" s="7"/>
+      <c r="C171" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="D171" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E171" s="9" t="n">
-        <v>37.66</v>
+        <v>4.26</v>
       </c>
       <c r="F171" s="9" t="n">
-        <v>150.64</v>
+        <v>25.56</v>
       </c>
       <c r="G171" s="9" t="n">
-        <v>37.66</v>
+        <v>4.26</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I171" s="9" t="n">
         <v>0.0</v>
@@ -8767,43 +8768,41 @@
         <v>0.0</v>
       </c>
       <c r="K171" s="9" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="L171" s="7" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="M171" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N171" s="7"/>
       <c r="O171" s="7" t="s">
-        <v>380</v>
+        <v>54</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B172" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B172" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>389</v>
-      </c>
+      <c r="C172" s="7"/>
       <c r="D172" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E172" s="9" t="n">
-        <v>2.32</v>
+        <v>37.66</v>
       </c>
       <c r="F172" s="9" t="n">
-        <v>18.56</v>
+        <v>150.64</v>
       </c>
       <c r="G172" s="9" t="n">
-        <v>2.32</v>
+        <v>37.66</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I172" s="9" t="n">
         <v>0.0</v>
@@ -8812,41 +8811,43 @@
         <v>0.0</v>
       </c>
       <c r="K172" s="9" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="L172" s="7" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="M172" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N172" s="7"/>
       <c r="O172" s="7" t="s">
-        <v>54</v>
+        <v>381</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C173" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="B173" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C173" s="7"/>
       <c r="D173" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E173" s="9" t="n">
-        <v>9.62</v>
+        <v>2.32</v>
       </c>
       <c r="F173" s="9" t="n">
-        <v>19.24</v>
+        <v>18.56</v>
       </c>
       <c r="G173" s="9" t="n">
-        <v>9.62</v>
+        <v>2.32</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I173" s="9" t="n">
         <v>0.0</v>
@@ -8855,10 +8856,10 @@
         <v>0.0</v>
       </c>
       <c r="K173" s="9" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="L173" s="7" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="M173" s="7" t="s">
         <v>20</v>
@@ -8870,26 +8871,26 @@
     </row>
     <row r="174">
       <c r="A174" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B174" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E174" s="9" t="n">
-        <v>19.25</v>
+        <v>9.62</v>
       </c>
       <c r="F174" s="9" t="n">
-        <v>77.0</v>
+        <v>19.24</v>
       </c>
       <c r="G174" s="9" t="n">
-        <v>19.25</v>
+        <v>9.62</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I174" s="9" t="n">
         <v>0.0</v>
@@ -8898,10 +8899,10 @@
         <v>0.0</v>
       </c>
       <c r="K174" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="L174" s="7" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="M174" s="7" t="s">
         <v>20</v>
@@ -8913,28 +8914,26 @@
     </row>
     <row r="175">
       <c r="A175" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B175" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="B175" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>396</v>
-      </c>
+      <c r="C175" s="7"/>
       <c r="D175" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E175" s="9" t="n">
-        <v>1.28</v>
+        <v>19.25</v>
       </c>
       <c r="F175" s="9" t="n">
-        <v>15.36</v>
+        <v>57.75</v>
       </c>
       <c r="G175" s="9" t="n">
-        <v>1.28</v>
+        <v>19.25</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I175" s="9" t="n">
         <v>0.0</v>
@@ -8943,41 +8942,43 @@
         <v>0.0</v>
       </c>
       <c r="K175" s="9" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="L175" s="7" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="M175" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N175" s="7"/>
       <c r="O175" s="7" t="s">
-        <v>380</v>
+        <v>54</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C176" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B176" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C176" s="7"/>
       <c r="D176" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E176" s="9" t="n">
-        <v>5.55</v>
+        <v>1.28</v>
       </c>
       <c r="F176" s="9" t="n">
-        <v>11.1</v>
+        <v>15.36</v>
       </c>
       <c r="G176" s="9" t="n">
-        <v>5.55</v>
+        <v>1.28</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="I176" s="9" t="n">
         <v>0.0</v>
@@ -8986,43 +8987,41 @@
         <v>0.0</v>
       </c>
       <c r="K176" s="9" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="L176" s="7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M176" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N176" s="7" t="s">
-        <v>399</v>
-      </c>
+      <c r="N176" s="7"/>
       <c r="O176" s="7" t="s">
-        <v>54</v>
+        <v>381</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C177" s="7"/>
       <c r="D177" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E177" s="9" t="n">
-        <v>2.45</v>
+        <v>5.55</v>
       </c>
       <c r="F177" s="9" t="n">
-        <v>14.7</v>
+        <v>11.1</v>
       </c>
       <c r="G177" s="9" t="n">
-        <v>2.45</v>
+        <v>5.55</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="I177" s="9" t="n">
         <v>0.0</v>
@@ -9031,41 +9030,43 @@
         <v>0.0</v>
       </c>
       <c r="K177" s="9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="L177" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M177" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N177" s="7"/>
+      <c r="N177" s="7" t="s">
+        <v>400</v>
+      </c>
       <c r="O177" s="7" t="s">
-        <v>402</v>
+        <v>54</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C178" s="7"/>
       <c r="D178" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E178" s="9" t="n">
-        <v>7.48</v>
+        <v>2.45</v>
       </c>
       <c r="F178" s="9" t="n">
-        <v>14.96</v>
+        <v>14.7</v>
       </c>
       <c r="G178" s="9" t="n">
-        <v>7.48</v>
+        <v>2.45</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I178" s="9" t="n">
         <v>0.0</v>
@@ -9074,29 +9075,29 @@
         <v>0.0</v>
       </c>
       <c r="K178" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="L178" s="7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M178" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N178" s="7"/>
       <c r="O178" s="7" t="s">
-        <v>54</v>
+        <v>403</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B179" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="C179" s="7"/>
       <c r="D179" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E179" s="9" t="n">
         <v>7.48</v>
@@ -9108,7 +9109,7 @@
         <v>7.48</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I179" s="9" t="n">
         <v>0.0</v>
@@ -9132,26 +9133,26 @@
     </row>
     <row r="180">
       <c r="A180" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B180" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="C180" s="7"/>
       <c r="D180" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E180" s="9" t="n">
-        <v>73.83</v>
+        <v>7.48</v>
       </c>
       <c r="F180" s="9" t="n">
-        <v>147.66</v>
+        <v>14.96</v>
       </c>
       <c r="G180" s="9" t="n">
-        <v>73.83</v>
+        <v>7.48</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="I180" s="9" t="n">
         <v>0.0</v>
@@ -9175,26 +9176,26 @@
     </row>
     <row r="181">
       <c r="A181" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B181" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E181" s="9" t="n">
-        <v>5.34</v>
+        <v>73.83</v>
       </c>
       <c r="F181" s="9" t="n">
-        <v>32.04</v>
+        <v>147.66</v>
       </c>
       <c r="G181" s="9" t="n">
-        <v>5.34</v>
+        <v>73.83</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I181" s="9" t="n">
         <v>0.0</v>
@@ -9203,43 +9204,41 @@
         <v>0.0</v>
       </c>
       <c r="K181" s="9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="L181" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M181" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N181" s="7" t="s">
-        <v>411</v>
-      </c>
+      <c r="N181" s="7"/>
       <c r="O181" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C182" s="7"/>
       <c r="D182" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E182" s="9" t="n">
-        <v>11.76</v>
+        <v>5.34</v>
       </c>
       <c r="F182" s="9" t="n">
-        <v>58.8</v>
+        <v>32.04</v>
       </c>
       <c r="G182" s="9" t="n">
-        <v>11.76</v>
+        <v>5.34</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="I182" s="9" t="n">
         <v>0.0</v>
@@ -9248,41 +9247,43 @@
         <v>0.0</v>
       </c>
       <c r="K182" s="9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L182" s="7" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="M182" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N182" s="7"/>
+      <c r="N182" s="7" t="s">
+        <v>412</v>
+      </c>
       <c r="O182" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B183" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="C183" s="7"/>
       <c r="D183" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E183" s="9" t="n">
-        <v>105.93</v>
+        <v>11.76</v>
       </c>
       <c r="F183" s="9" t="n">
-        <v>211.86</v>
+        <v>47.04</v>
       </c>
       <c r="G183" s="9" t="n">
-        <v>105.93</v>
+        <v>11.76</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="I183" s="9" t="n">
         <v>0.0</v>
@@ -9291,10 +9292,10 @@
         <v>0.0</v>
       </c>
       <c r="K183" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="L183" s="7" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="M183" s="7" t="s">
         <v>20</v>
@@ -9306,26 +9307,26 @@
     </row>
     <row r="184">
       <c r="A184" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B184" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="C184" s="7"/>
       <c r="D184" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E184" s="9" t="n">
-        <v>6.4</v>
+        <v>105.93</v>
       </c>
       <c r="F184" s="9" t="n">
-        <v>12.8</v>
+        <v>211.86</v>
       </c>
       <c r="G184" s="9" t="n">
-        <v>6.4</v>
+        <v>105.93</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="I184" s="9" t="n">
         <v>0.0</v>
@@ -9337,7 +9338,7 @@
         <v>2.0</v>
       </c>
       <c r="L184" s="7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="M184" s="7" t="s">
         <v>20</v>
@@ -9349,25 +9350,27 @@
     </row>
     <row r="185">
       <c r="A185" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>418</v>
       </c>
       <c r="C185" s="7"/>
       <c r="D185" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E185" s="9" t="n">
-        <v>73.83</v>
+        <v>6.4</v>
       </c>
       <c r="F185" s="9" t="n">
-        <v>0.0</v>
+        <v>12.8</v>
       </c>
       <c r="G185" s="9" t="n">
-        <v>73.83</v>
-      </c>
-      <c r="H185" s="7"/>
+        <v>6.4</v>
+      </c>
+      <c r="H185" s="7" t="s">
+        <v>351</v>
+      </c>
       <c r="I185" s="9" t="n">
         <v>0.0</v>
       </c>
@@ -9375,10 +9378,10 @@
         <v>0.0</v>
       </c>
       <c r="K185" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L185" s="7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M185" s="7" t="s">
         <v>20</v>
@@ -9389,26 +9392,26 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="7"/>
+      <c r="A186" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="B186" s="7" t="s">
         <v>419</v>
       </c>
       <c r="C186" s="7"/>
       <c r="D186" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E186" s="9" t="n">
-        <v>21.2</v>
+        <v>73.83</v>
       </c>
       <c r="F186" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="G186" s="9" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="H186" s="7" t="s">
-        <v>350</v>
-      </c>
+        <v>73.83</v>
+      </c>
+      <c r="H186" s="7"/>
       <c r="I186" s="9" t="n">
         <v>0.0</v>
       </c>
@@ -9419,7 +9422,7 @@
         <v>0.0</v>
       </c>
       <c r="L186" s="7" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="M186" s="7" t="s">
         <v>20</v>
@@ -9430,29 +9433,25 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="7" t="s">
-        <v>416</v>
-      </c>
+      <c r="A187" s="7"/>
       <c r="B187" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="C187" s="7" t="s">
-        <v>345</v>
-      </c>
+      <c r="C187" s="7"/>
       <c r="D187" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E187" s="9" t="n">
-        <v>5.34</v>
+        <v>21.2</v>
       </c>
       <c r="F187" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="G187" s="9" t="n">
-        <v>5.34</v>
+        <v>21.2</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I187" s="9" t="n">
         <v>0.0</v>
@@ -9464,7 +9463,7 @@
         <v>0.0</v>
       </c>
       <c r="L187" s="7" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="M187" s="7" t="s">
         <v>20</v>
@@ -9476,28 +9475,28 @@
     </row>
     <row r="188">
       <c r="A188" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B188" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="B188" s="7" t="s">
-        <v>422</v>
-      </c>
       <c r="C188" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E188" s="9" t="n">
-        <v>6.79</v>
+        <v>5.34</v>
       </c>
       <c r="F188" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="G188" s="9" t="n">
-        <v>6.79</v>
+        <v>5.34</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>64</v>
+        <v>351</v>
       </c>
       <c r="I188" s="9" t="n">
         <v>0.0</v>
@@ -9521,28 +9520,28 @@
     </row>
     <row r="189">
       <c r="A189" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B189" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="B189" s="7" t="s">
-        <v>424</v>
-      </c>
       <c r="C189" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E189" s="9" t="n">
-        <v>2.66</v>
+        <v>6.79</v>
       </c>
       <c r="F189" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="G189" s="9" t="n">
-        <v>2.66</v>
+        <v>6.79</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>350</v>
+        <v>64</v>
       </c>
       <c r="I189" s="9" t="n">
         <v>0.0</v>
@@ -9566,26 +9565,28 @@
     </row>
     <row r="190">
       <c r="A190" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B190" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="B190" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="C190" s="7"/>
+      <c r="C190" s="7" t="s">
+        <v>346</v>
+      </c>
       <c r="D190" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E190" s="9" t="n">
-        <v>2.97</v>
+        <v>2.66</v>
       </c>
       <c r="F190" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="G190" s="9" t="n">
-        <v>2.97</v>
+        <v>2.66</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I190" s="9" t="n">
         <v>0.0</v>
@@ -9597,7 +9598,7 @@
         <v>0.0</v>
       </c>
       <c r="L190" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M190" s="7" t="s">
         <v>20</v>
@@ -9609,26 +9610,26 @@
     </row>
     <row r="191">
       <c r="A191" s="7" t="s">
-        <v>356</v>
+        <v>426</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>427</v>
       </c>
       <c r="C191" s="7"/>
       <c r="D191" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E191" s="9" t="n">
-        <v>5.99</v>
+        <v>2.97</v>
       </c>
       <c r="F191" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="G191" s="9" t="n">
-        <v>5.99</v>
+        <v>2.97</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I191" s="9" t="n">
         <v>0.0</v>
@@ -9640,60 +9641,103 @@
         <v>0.0</v>
       </c>
       <c r="L191" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M191" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N191" s="7"/>
       <c r="O191" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E192" s="9" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F192" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G192" s="9" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="H192" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="I192" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J192" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K192" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L192" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M192" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N192" s="7"/>
+      <c r="O192" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="8"/>
-      <c r="B192" s="8"/>
-      <c r="C192" s="8"/>
-      <c r="D192" s="8"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="10" t="n">
-        <v>24347.53</v>
-      </c>
-      <c r="G192" s="10"/>
-      <c r="H192" s="8"/>
-      <c r="I192" s="10"/>
-      <c r="J192" s="10"/>
-      <c r="K192" s="10" t="n">
-        <v>782.0</v>
-      </c>
-      <c r="L192" s="8"/>
-      <c r="M192" s="8"/>
-      <c r="N192" s="8"/>
-      <c r="O192" s="8"/>
-    </row>
-    <row r="193"/>
-    <row r="194">
-      <c r="A194" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="B194" s="8"/>
-      <c r="C194" s="8"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="10"/>
-      <c r="F194" s="10" t="n">
-        <v>24347.53</v>
-      </c>
-      <c r="G194" s="10"/>
-      <c r="H194" s="8"/>
-      <c r="I194" s="10"/>
-      <c r="J194" s="10"/>
-      <c r="K194" s="10" t="n">
-        <v>782.0</v>
-      </c>
-      <c r="L194" s="8"/>
-      <c r="M194" s="8"/>
-      <c r="N194" s="8"/>
-      <c r="O194" s="8"/>
+    <row r="193">
+      <c r="A193" s="8"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
+      <c r="D193" s="8"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="10" t="n">
+        <v>21108.59</v>
+      </c>
+      <c r="G193" s="10"/>
+      <c r="H193" s="8"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="10"/>
+      <c r="K193" s="10" t="n">
+        <v>766.0</v>
+      </c>
+      <c r="L193" s="8"/>
+      <c r="M193" s="8"/>
+      <c r="N193" s="8"/>
+      <c r="O193" s="8"/>
+    </row>
+    <row r="194"/>
+    <row r="195">
+      <c r="A195" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B195" s="8"/>
+      <c r="C195" s="8"/>
+      <c r="D195" s="8"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10" t="n">
+        <v>21108.59</v>
+      </c>
+      <c r="G195" s="10"/>
+      <c r="H195" s="8"/>
+      <c r="I195" s="10"/>
+      <c r="J195" s="10"/>
+      <c r="K195" s="10" t="n">
+        <v>766.0</v>
+      </c>
+      <c r="L195" s="8"/>
+      <c r="M195" s="8"/>
+      <c r="N195" s="8"/>
+      <c r="O195" s="8"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>

--- a/Shop Files/osceola.xlsx
+++ b/Shop Files/osceola.xlsx
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>06/17/2025 08:15 PM</t>
+      <t>06/23/2025 05:48 PM</t>
     </r>
   </si>
   <si>
@@ -1894,7 +1894,7 @@
         <v>4.64</v>
       </c>
       <c r="F12" s="9" t="n">
-        <v>18.56</v>
+        <v>0.0</v>
       </c>
       <c r="G12" s="9" t="n">
         <v>4.64</v>
@@ -1909,7 +1909,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" s="9" t="n">
-        <v>4.0</v>
+        <v>-2.0</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>31</v>
@@ -1937,7 +1937,7 @@
         <v>37.44</v>
       </c>
       <c r="F13" s="9" t="n">
-        <v>74.88</v>
+        <v>0.0</v>
       </c>
       <c r="G13" s="9" t="n">
         <v>37.44</v>
@@ -1952,7 +1952,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>25</v>
@@ -2062,7 +2062,7 @@
         <v>6.71</v>
       </c>
       <c r="F16" s="9" t="n">
-        <v>46.97</v>
+        <v>13.42</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>6.71</v>
@@ -2077,7 +2077,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" s="9" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>31</v>
@@ -2230,7 +2230,7 @@
         <v>647.35</v>
       </c>
       <c r="F20" s="9" t="n">
-        <v>647.35</v>
+        <v>1294.7</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>647.35</v>
@@ -2245,7 +2245,7 @@
         <v>0.0</v>
       </c>
       <c r="K20" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>48</v>
@@ -2275,7 +2275,7 @@
         <v>437.63</v>
       </c>
       <c r="F21" s="9" t="n">
-        <v>0.0</v>
+        <v>875.26</v>
       </c>
       <c r="G21" s="9" t="n">
         <v>437.63</v>
@@ -2290,7 +2290,7 @@
         <v>0.0</v>
       </c>
       <c r="K21" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>48</v>
@@ -2936,7 +2936,7 @@
         <v>1.11</v>
       </c>
       <c r="F36" s="9" t="n">
-        <v>53.28</v>
+        <v>51.06</v>
       </c>
       <c r="G36" s="9" t="n">
         <v>1.11</v>
@@ -2951,7 +2951,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" s="9" t="n">
-        <v>48.0</v>
+        <v>46.0</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>94</v>
@@ -3026,7 +3026,7 @@
         <v>4.54</v>
       </c>
       <c r="F38" s="9" t="n">
-        <v>104.42</v>
+        <v>99.88</v>
       </c>
       <c r="G38" s="9" t="n">
         <v>4.54</v>
@@ -3041,7 +3041,7 @@
         <v>0.0</v>
       </c>
       <c r="K38" s="9" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>101</v>
@@ -3157,7 +3157,7 @@
         <v>2.04</v>
       </c>
       <c r="F41" s="9" t="n">
-        <v>20.4</v>
+        <v>18.36</v>
       </c>
       <c r="G41" s="9" t="n">
         <v>2.04</v>
@@ -3172,7 +3172,7 @@
         <v>0.0</v>
       </c>
       <c r="K41" s="9" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>111</v>
@@ -3722,7 +3722,7 @@
         <v>2.49</v>
       </c>
       <c r="F54" s="9" t="n">
-        <v>22.41</v>
+        <v>14.94</v>
       </c>
       <c r="G54" s="9" t="n">
         <v>2.49</v>
@@ -3737,7 +3737,7 @@
         <v>0.0</v>
       </c>
       <c r="K54" s="9" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>111</v>
@@ -3947,7 +3947,7 @@
         <v>2.32</v>
       </c>
       <c r="F59" s="9" t="n">
-        <v>18.56</v>
+        <v>16.24</v>
       </c>
       <c r="G59" s="9" t="n">
         <v>2.32</v>
@@ -3962,7 +3962,7 @@
         <v>0.0</v>
       </c>
       <c r="K59" s="9" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>111</v>
@@ -5344,7 +5344,7 @@
         <v>6.96</v>
       </c>
       <c r="F92" s="9" t="n">
-        <v>13.92</v>
+        <v>0.0</v>
       </c>
       <c r="G92" s="9" t="n">
         <v>6.96</v>
@@ -5359,7 +5359,7 @@
         <v>0.0</v>
       </c>
       <c r="K92" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="L92" s="7" t="s">
         <v>25</v>
@@ -5729,7 +5729,7 @@
         <v>266.75</v>
       </c>
       <c r="F101" s="9" t="n">
-        <v>266.75</v>
+        <v>0.0</v>
       </c>
       <c r="G101" s="9" t="n">
         <v>266.75</v>
@@ -5744,7 +5744,7 @@
         <v>0.0</v>
       </c>
       <c r="K101" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L101" s="7" t="s">
         <v>48</v>
@@ -5772,7 +5772,7 @@
         <v>6.72</v>
       </c>
       <c r="F102" s="9" t="n">
-        <v>60.48</v>
+        <v>40.32</v>
       </c>
       <c r="G102" s="9" t="n">
         <v>6.72</v>
@@ -5787,7 +5787,7 @@
         <v>0.0</v>
       </c>
       <c r="K102" s="9" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="L102" s="7" t="s">
         <v>31</v>
@@ -6956,7 +6956,7 @@
         <v>20.0</v>
       </c>
       <c r="F130" s="9" t="n">
-        <v>120.0</v>
+        <v>80.0</v>
       </c>
       <c r="G130" s="9" t="n">
         <v>20.0</v>
@@ -6971,7 +6971,7 @@
         <v>0.0</v>
       </c>
       <c r="K130" s="9" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="L130" s="7" t="s">
         <v>31</v>
@@ -7001,7 +7001,7 @@
         <v>10.69</v>
       </c>
       <c r="F131" s="9" t="n">
-        <v>96.21</v>
+        <v>85.52</v>
       </c>
       <c r="G131" s="9" t="n">
         <v>10.69</v>
@@ -7016,7 +7016,7 @@
         <v>0.0</v>
       </c>
       <c r="K131" s="9" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="L131" s="7" t="s">
         <v>31</v>
@@ -7353,7 +7353,7 @@
         <v>10.68</v>
       </c>
       <c r="F139" s="9" t="n">
-        <v>53.4</v>
+        <v>42.72</v>
       </c>
       <c r="G139" s="9" t="n">
         <v>10.68</v>
@@ -7368,7 +7368,7 @@
         <v>0.0</v>
       </c>
       <c r="K139" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="L139" s="7" t="s">
         <v>134</v>
@@ -7572,7 +7572,7 @@
         <v>12.82</v>
       </c>
       <c r="F144" s="9" t="n">
-        <v>51.28</v>
+        <v>38.46</v>
       </c>
       <c r="G144" s="9" t="n">
         <v>12.82</v>
@@ -7587,7 +7587,7 @@
         <v>0.0</v>
       </c>
       <c r="K144" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="L144" s="7" t="s">
         <v>134</v>
@@ -7703,7 +7703,7 @@
         <v>10.15</v>
       </c>
       <c r="F147" s="9" t="n">
-        <v>10.15</v>
+        <v>0.0</v>
       </c>
       <c r="G147" s="9" t="n">
         <v>10.15</v>
@@ -7718,7 +7718,7 @@
         <v>0.0</v>
       </c>
       <c r="K147" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L147" s="7" t="s">
         <v>48</v>
@@ -8141,7 +8141,7 @@
         <v>8.55</v>
       </c>
       <c r="F157" s="9" t="n">
-        <v>25.65</v>
+        <v>17.1</v>
       </c>
       <c r="G157" s="9" t="n">
         <v>8.55</v>
@@ -8156,7 +8156,7 @@
         <v>0.0</v>
       </c>
       <c r="K157" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L157" s="7" t="s">
         <v>25</v>
@@ -8972,7 +8972,7 @@
         <v>1.28</v>
       </c>
       <c r="F176" s="9" t="n">
-        <v>15.36</v>
+        <v>14.08</v>
       </c>
       <c r="G176" s="9" t="n">
         <v>1.28</v>
@@ -8987,7 +8987,7 @@
         <v>0.0</v>
       </c>
       <c r="K176" s="9" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="L176" s="7" t="s">
         <v>25</v>
@@ -9277,7 +9277,7 @@
         <v>11.76</v>
       </c>
       <c r="F183" s="9" t="n">
-        <v>47.04</v>
+        <v>35.28</v>
       </c>
       <c r="G183" s="9" t="n">
         <v>11.76</v>
@@ -9292,7 +9292,7 @@
         <v>0.0</v>
       </c>
       <c r="K183" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="L183" s="7" t="s">
         <v>134</v>
@@ -9363,7 +9363,7 @@
         <v>6.4</v>
       </c>
       <c r="F185" s="9" t="n">
-        <v>12.8</v>
+        <v>0.0</v>
       </c>
       <c r="G185" s="9" t="n">
         <v>6.4</v>
@@ -9378,7 +9378,7 @@
         <v>0.0</v>
       </c>
       <c r="K185" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="L185" s="7" t="s">
         <v>25</v>
@@ -9701,14 +9701,14 @@
       <c r="D193" s="8"/>
       <c r="E193" s="10"/>
       <c r="F193" s="10" t="n">
-        <v>21108.59</v>
+        <v>22066.06</v>
       </c>
       <c r="G193" s="10"/>
       <c r="H193" s="8"/>
       <c r="I193" s="10"/>
       <c r="J193" s="10"/>
       <c r="K193" s="10" t="n">
-        <v>766.0</v>
+        <v>731.0</v>
       </c>
       <c r="L193" s="8"/>
       <c r="M193" s="8"/>
@@ -9725,14 +9725,14 @@
       <c r="D195" s="8"/>
       <c r="E195" s="10"/>
       <c r="F195" s="10" t="n">
-        <v>21108.59</v>
+        <v>22066.06</v>
       </c>
       <c r="G195" s="10"/>
       <c r="H195" s="8"/>
       <c r="I195" s="10"/>
       <c r="J195" s="10"/>
       <c r="K195" s="10" t="n">
-        <v>766.0</v>
+        <v>731.0</v>
       </c>
       <c r="L195" s="8"/>
       <c r="M195" s="8"/>

--- a/Shop Files/osceola.xlsx
+++ b/Shop Files/osceola.xlsx
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>06/23/2025 05:48 PM</t>
+      <t>07/22/2025 07:22 AM</t>
     </r>
   </si>
   <si>
@@ -1812,7 +1812,7 @@
         <v>17.53</v>
       </c>
       <c r="F10" s="9" t="n">
-        <v>35.06</v>
+        <v>70.12</v>
       </c>
       <c r="G10" s="9" t="n">
         <v>17.53</v>
@@ -1827,7 +1827,7 @@
         <v>0.0</v>
       </c>
       <c r="K10" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>25</v>
@@ -1894,7 +1894,7 @@
         <v>4.64</v>
       </c>
       <c r="F12" s="9" t="n">
-        <v>0.0</v>
+        <v>4.64</v>
       </c>
       <c r="G12" s="9" t="n">
         <v>4.64</v>
@@ -1909,7 +1909,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" s="9" t="n">
-        <v>-2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>31</v>
@@ -1937,7 +1937,7 @@
         <v>37.44</v>
       </c>
       <c r="F13" s="9" t="n">
-        <v>0.0</v>
+        <v>149.76</v>
       </c>
       <c r="G13" s="9" t="n">
         <v>37.44</v>
@@ -1952,7 +1952,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" s="9" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>25</v>
@@ -2062,7 +2062,7 @@
         <v>6.71</v>
       </c>
       <c r="F16" s="9" t="n">
-        <v>13.42</v>
+        <v>67.1</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>6.71</v>
@@ -2077,7 +2077,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" s="9" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>31</v>
@@ -2105,7 +2105,7 @@
         <v>40.11</v>
       </c>
       <c r="F17" s="9" t="n">
-        <v>80.22</v>
+        <v>160.44</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>40.11</v>
@@ -2120,7 +2120,7 @@
         <v>0.0</v>
       </c>
       <c r="K17" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>25</v>
@@ -2361,7 +2361,7 @@
         <v>534.99</v>
       </c>
       <c r="F23" s="9" t="n">
-        <v>4279.92</v>
+        <v>3209.94</v>
       </c>
       <c r="G23" s="9" t="n">
         <v>534.99</v>
@@ -2376,7 +2376,7 @@
         <v>0.0</v>
       </c>
       <c r="K23" s="9" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>48</v>
@@ -2404,7 +2404,7 @@
         <v>492.2</v>
       </c>
       <c r="F24" s="9" t="n">
-        <v>984.4</v>
+        <v>1476.6</v>
       </c>
       <c r="G24" s="9" t="n">
         <v>492.2</v>
@@ -2419,7 +2419,7 @@
         <v>0.0</v>
       </c>
       <c r="K24" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>48</v>
@@ -2584,7 +2584,7 @@
         <v>0.6</v>
       </c>
       <c r="F28" s="9" t="n">
-        <v>3.6</v>
+        <v>9.0</v>
       </c>
       <c r="G28" s="9" t="n">
         <v>0.6</v>
@@ -2599,7 +2599,7 @@
         <v>0.0</v>
       </c>
       <c r="K28" s="9" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>31</v>
@@ -2674,7 +2674,7 @@
         <v>13.19</v>
       </c>
       <c r="F30" s="9" t="n">
-        <v>0.0</v>
+        <v>26.38</v>
       </c>
       <c r="G30" s="9" t="n">
         <v>13.19</v>
@@ -2689,7 +2689,7 @@
         <v>0.0</v>
       </c>
       <c r="K30" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>45</v>
@@ -2805,7 +2805,7 @@
         <v>32.07</v>
       </c>
       <c r="F33" s="9" t="n">
-        <v>256.56</v>
+        <v>320.7</v>
       </c>
       <c r="G33" s="9" t="n">
         <v>32.07</v>
@@ -2820,7 +2820,7 @@
         <v>0.0</v>
       </c>
       <c r="K33" s="9" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>31</v>
@@ -2891,7 +2891,7 @@
         <v>54.71</v>
       </c>
       <c r="F35" s="9" t="n">
-        <v>109.42</v>
+        <v>54.71</v>
       </c>
       <c r="G35" s="9" t="n">
         <v>54.71</v>
@@ -2906,7 +2906,7 @@
         <v>0.0</v>
       </c>
       <c r="K35" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>25</v>
@@ -2936,7 +2936,7 @@
         <v>1.11</v>
       </c>
       <c r="F36" s="9" t="n">
-        <v>51.06</v>
+        <v>31.08</v>
       </c>
       <c r="G36" s="9" t="n">
         <v>1.11</v>
@@ -2951,7 +2951,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" s="9" t="n">
-        <v>46.0</v>
+        <v>28.0</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>94</v>
@@ -2981,7 +2981,7 @@
         <v>2.08</v>
       </c>
       <c r="F37" s="9" t="n">
-        <v>20.8</v>
+        <v>14.56</v>
       </c>
       <c r="G37" s="9" t="n">
         <v>2.08</v>
@@ -2996,7 +2996,7 @@
         <v>0.0</v>
       </c>
       <c r="K37" s="9" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         <v>0.45</v>
       </c>
       <c r="F39" s="9" t="n">
-        <v>6.3</v>
+        <v>16.2</v>
       </c>
       <c r="G39" s="9" t="n">
         <v>0.45</v>
@@ -3084,7 +3084,7 @@
         <v>0.0</v>
       </c>
       <c r="K39" s="9" t="n">
-        <v>14.0</v>
+        <v>36.0</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>104</v>
@@ -3157,7 +3157,7 @@
         <v>2.04</v>
       </c>
       <c r="F41" s="9" t="n">
-        <v>18.36</v>
+        <v>30.6</v>
       </c>
       <c r="G41" s="9" t="n">
         <v>2.04</v>
@@ -3172,7 +3172,7 @@
         <v>0.0</v>
       </c>
       <c r="K41" s="9" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>111</v>
@@ -3200,7 +3200,7 @@
         <v>1.61</v>
       </c>
       <c r="F42" s="9" t="n">
-        <v>4.83</v>
+        <v>8.05</v>
       </c>
       <c r="G42" s="9" t="n">
         <v>1.61</v>
@@ -3215,7 +3215,7 @@
         <v>0.0</v>
       </c>
       <c r="K42" s="9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>25</v>
@@ -3466,7 +3466,7 @@
         <v>43.85</v>
       </c>
       <c r="F48" s="9" t="n">
-        <v>350.8</v>
+        <v>263.1</v>
       </c>
       <c r="G48" s="9" t="n">
         <v>43.85</v>
@@ -3481,7 +3481,7 @@
         <v>0.0</v>
       </c>
       <c r="K48" s="9" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>31</v>
@@ -3675,7 +3675,7 @@
         <v>23.51</v>
       </c>
       <c r="F53" s="9" t="n">
-        <v>258.61</v>
+        <v>305.63</v>
       </c>
       <c r="G53" s="9" t="n">
         <v>23.51</v>
@@ -3690,7 +3690,7 @@
         <v>0.0</v>
       </c>
       <c r="K53" s="9" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>27</v>
@@ -3722,7 +3722,7 @@
         <v>2.49</v>
       </c>
       <c r="F54" s="9" t="n">
-        <v>14.94</v>
+        <v>54.78</v>
       </c>
       <c r="G54" s="9" t="n">
         <v>2.49</v>
@@ -3737,7 +3737,7 @@
         <v>0.0</v>
       </c>
       <c r="K54" s="9" t="n">
-        <v>6.0</v>
+        <v>22.0</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>111</v>
@@ -3947,7 +3947,7 @@
         <v>2.32</v>
       </c>
       <c r="F59" s="9" t="n">
-        <v>16.24</v>
+        <v>27.84</v>
       </c>
       <c r="G59" s="9" t="n">
         <v>2.32</v>
@@ -3962,7 +3962,7 @@
         <v>0.0</v>
       </c>
       <c r="K59" s="9" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>111</v>
@@ -3990,7 +3990,7 @@
         <v>16.11</v>
       </c>
       <c r="F60" s="9" t="n">
-        <v>64.44</v>
+        <v>48.33</v>
       </c>
       <c r="G60" s="9" t="n">
         <v>16.11</v>
@@ -4005,7 +4005,7 @@
         <v>0.0</v>
       </c>
       <c r="K60" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="L60" s="7" t="s">
         <v>25</v>
@@ -4033,7 +4033,7 @@
         <v>7.47</v>
       </c>
       <c r="F61" s="9" t="n">
-        <v>22.41</v>
+        <v>29.88</v>
       </c>
       <c r="G61" s="9" t="n">
         <v>7.47</v>
@@ -4048,7 +4048,7 @@
         <v>0.0</v>
       </c>
       <c r="K61" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L61" s="7" t="s">
         <v>134</v>
@@ -4117,7 +4117,7 @@
         <v>8.99</v>
       </c>
       <c r="F63" s="9" t="n">
-        <v>8.99</v>
+        <v>17.98</v>
       </c>
       <c r="G63" s="9" t="n">
         <v>8.99</v>
@@ -4132,7 +4132,7 @@
         <v>0.0</v>
       </c>
       <c r="K63" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>48</v>
@@ -4416,7 +4416,7 @@
         <v>19.27</v>
       </c>
       <c r="F70" s="9" t="n">
-        <v>96.35</v>
+        <v>77.08</v>
       </c>
       <c r="G70" s="9" t="n">
         <v>19.27</v>
@@ -4431,7 +4431,7 @@
         <v>0.0</v>
       </c>
       <c r="K70" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>25</v>
@@ -4459,7 +4459,7 @@
         <v>10.65</v>
       </c>
       <c r="F71" s="9" t="n">
-        <v>10.65</v>
+        <v>0.0</v>
       </c>
       <c r="G71" s="9" t="n">
         <v>10.65</v>
@@ -4474,7 +4474,7 @@
         <v>0.0</v>
       </c>
       <c r="K71" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L71" s="7" t="s">
         <v>48</v>
@@ -5344,7 +5344,7 @@
         <v>6.96</v>
       </c>
       <c r="F92" s="9" t="n">
-        <v>0.0</v>
+        <v>27.84</v>
       </c>
       <c r="G92" s="9" t="n">
         <v>6.96</v>
@@ -5359,7 +5359,7 @@
         <v>0.0</v>
       </c>
       <c r="K92" s="9" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="L92" s="7" t="s">
         <v>25</v>
@@ -5430,7 +5430,7 @@
         <v>9.62</v>
       </c>
       <c r="F94" s="9" t="n">
-        <v>38.48</v>
+        <v>28.86</v>
       </c>
       <c r="G94" s="9" t="n">
         <v>9.62</v>
@@ -5445,7 +5445,7 @@
         <v>0.0</v>
       </c>
       <c r="K94" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="L94" s="7" t="s">
         <v>25</v>
@@ -5772,7 +5772,7 @@
         <v>6.72</v>
       </c>
       <c r="F102" s="9" t="n">
-        <v>40.32</v>
+        <v>60.48</v>
       </c>
       <c r="G102" s="9" t="n">
         <v>6.72</v>
@@ -5787,7 +5787,7 @@
         <v>0.0</v>
       </c>
       <c r="K102" s="9" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="L102" s="7" t="s">
         <v>31</v>
@@ -6313,7 +6313,7 @@
         <v>37.45</v>
       </c>
       <c r="F115" s="9" t="n">
-        <v>187.25</v>
+        <v>299.6</v>
       </c>
       <c r="G115" s="9" t="n">
         <v>37.45</v>
@@ -6328,7 +6328,7 @@
         <v>0.0</v>
       </c>
       <c r="K115" s="9" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="L115" s="7" t="s">
         <v>31</v>
@@ -6405,7 +6405,7 @@
         <v>3.2</v>
       </c>
       <c r="F117" s="9" t="n">
-        <v>19.2</v>
+        <v>16.0</v>
       </c>
       <c r="G117" s="9" t="n">
         <v>3.2</v>
@@ -6420,7 +6420,7 @@
         <v>0.0</v>
       </c>
       <c r="K117" s="9" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="L117" s="7" t="s">
         <v>45</v>
@@ -6747,7 +6747,7 @@
         <v>373.43</v>
       </c>
       <c r="F125" s="9" t="n">
-        <v>373.43</v>
+        <v>0.0</v>
       </c>
       <c r="G125" s="9" t="n">
         <v>373.43</v>
@@ -6762,7 +6762,7 @@
         <v>0.0</v>
       </c>
       <c r="K125" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L125" s="7" t="s">
         <v>48</v>
@@ -7177,7 +7177,7 @@
         <v>127.33</v>
       </c>
       <c r="F135" s="9" t="n">
-        <v>254.66</v>
+        <v>381.99</v>
       </c>
       <c r="G135" s="9" t="n">
         <v>127.33</v>
@@ -7192,7 +7192,7 @@
         <v>0.0</v>
       </c>
       <c r="K135" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L135" s="7" t="s">
         <v>45</v>
@@ -7220,7 +7220,7 @@
         <v>127.33</v>
       </c>
       <c r="F136" s="9" t="n">
-        <v>127.33</v>
+        <v>254.66</v>
       </c>
       <c r="G136" s="9" t="n">
         <v>127.33</v>
@@ -7235,7 +7235,7 @@
         <v>0.0</v>
       </c>
       <c r="K136" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L136" s="7" t="s">
         <v>45</v>
@@ -7308,7 +7308,7 @@
         <v>10.15</v>
       </c>
       <c r="F138" s="9" t="n">
-        <v>71.05</v>
+        <v>172.55</v>
       </c>
       <c r="G138" s="9" t="n">
         <v>10.15</v>
@@ -7323,7 +7323,7 @@
         <v>0.0</v>
       </c>
       <c r="K138" s="9" t="n">
-        <v>7.0</v>
+        <v>17.0</v>
       </c>
       <c r="L138" s="7" t="s">
         <v>111</v>
@@ -7353,7 +7353,7 @@
         <v>10.68</v>
       </c>
       <c r="F139" s="9" t="n">
-        <v>42.72</v>
+        <v>53.4</v>
       </c>
       <c r="G139" s="9" t="n">
         <v>10.68</v>
@@ -7368,7 +7368,7 @@
         <v>0.0</v>
       </c>
       <c r="K139" s="9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L139" s="7" t="s">
         <v>134</v>
@@ -7486,7 +7486,7 @@
         <v>0.38</v>
       </c>
       <c r="F142" s="9" t="n">
-        <v>6.08</v>
+        <v>5.7</v>
       </c>
       <c r="G142" s="9" t="n">
         <v>0.38</v>
@@ -7501,7 +7501,7 @@
         <v>0.0</v>
       </c>
       <c r="K142" s="9" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="L142" s="7" t="s">
         <v>31</v>
@@ -7572,7 +7572,7 @@
         <v>12.82</v>
       </c>
       <c r="F144" s="9" t="n">
-        <v>38.46</v>
+        <v>89.74</v>
       </c>
       <c r="G144" s="9" t="n">
         <v>12.82</v>
@@ -7587,7 +7587,7 @@
         <v>0.0</v>
       </c>
       <c r="K144" s="9" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="L144" s="7" t="s">
         <v>134</v>
@@ -7967,7 +7967,7 @@
         <v>3.18</v>
       </c>
       <c r="F153" s="9" t="n">
-        <v>15.9</v>
+        <v>12.72</v>
       </c>
       <c r="G153" s="9" t="n">
         <v>3.18</v>
@@ -7982,7 +7982,7 @@
         <v>0.0</v>
       </c>
       <c r="K153" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="L153" s="7" t="s">
         <v>25</v>
@@ -8141,7 +8141,7 @@
         <v>8.55</v>
       </c>
       <c r="F157" s="9" t="n">
-        <v>17.1</v>
+        <v>25.65</v>
       </c>
       <c r="G157" s="9" t="n">
         <v>8.55</v>
@@ -8156,7 +8156,7 @@
         <v>0.0</v>
       </c>
       <c r="K157" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L157" s="7" t="s">
         <v>25</v>
@@ -8186,7 +8186,7 @@
         <v>8.24</v>
       </c>
       <c r="F158" s="9" t="n">
-        <v>49.44</v>
+        <v>32.96</v>
       </c>
       <c r="G158" s="9" t="n">
         <v>8.98</v>
@@ -8201,7 +8201,7 @@
         <v>0.74</v>
       </c>
       <c r="K158" s="9" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="L158" s="7" t="s">
         <v>25</v>
@@ -8403,7 +8403,7 @@
         <v>21.2</v>
       </c>
       <c r="F163" s="9" t="n">
-        <v>106.0</v>
+        <v>84.8</v>
       </c>
       <c r="G163" s="9" t="n">
         <v>21.2</v>
@@ -8418,7 +8418,7 @@
         <v>0.0</v>
       </c>
       <c r="K163" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="L163" s="7" t="s">
         <v>134</v>
@@ -8446,7 +8446,7 @@
         <v>10.56</v>
       </c>
       <c r="F164" s="9" t="n">
-        <v>52.8</v>
+        <v>31.68</v>
       </c>
       <c r="G164" s="9" t="n">
         <v>10.56</v>
@@ -8461,7 +8461,7 @@
         <v>0.0</v>
       </c>
       <c r="K164" s="9" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="L164" s="7" t="s">
         <v>25</v>
@@ -8577,7 +8577,7 @@
         <v>11.76</v>
       </c>
       <c r="F167" s="9" t="n">
-        <v>35.28</v>
+        <v>23.52</v>
       </c>
       <c r="G167" s="9" t="n">
         <v>11.76</v>
@@ -8592,7 +8592,7 @@
         <v>0.0</v>
       </c>
       <c r="K167" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L167" s="7" t="s">
         <v>45</v>
@@ -8620,7 +8620,7 @@
         <v>6.41</v>
       </c>
       <c r="F168" s="9" t="n">
-        <v>32.05</v>
+        <v>25.64</v>
       </c>
       <c r="G168" s="9" t="n">
         <v>6.41</v>
@@ -8635,7 +8635,7 @@
         <v>0.0</v>
       </c>
       <c r="K168" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="L168" s="7" t="s">
         <v>134</v>
@@ -8708,7 +8708,7 @@
         <v>9.61</v>
       </c>
       <c r="F170" s="9" t="n">
-        <v>48.05</v>
+        <v>28.83</v>
       </c>
       <c r="G170" s="9" t="n">
         <v>9.61</v>
@@ -8723,7 +8723,7 @@
         <v>0.0</v>
       </c>
       <c r="K170" s="9" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="L170" s="7" t="s">
         <v>25</v>
@@ -8753,7 +8753,7 @@
         <v>4.26</v>
       </c>
       <c r="F171" s="9" t="n">
-        <v>25.56</v>
+        <v>21.3</v>
       </c>
       <c r="G171" s="9" t="n">
         <v>4.26</v>
@@ -8768,7 +8768,7 @@
         <v>0.0</v>
       </c>
       <c r="K171" s="9" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="L171" s="7" t="s">
         <v>134</v>
@@ -8927,7 +8927,7 @@
         <v>19.25</v>
       </c>
       <c r="F175" s="9" t="n">
-        <v>57.75</v>
+        <v>77.0</v>
       </c>
       <c r="G175" s="9" t="n">
         <v>19.25</v>
@@ -8942,7 +8942,7 @@
         <v>0.0</v>
       </c>
       <c r="K175" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L175" s="7" t="s">
         <v>134</v>
@@ -8972,7 +8972,7 @@
         <v>1.28</v>
       </c>
       <c r="F176" s="9" t="n">
-        <v>14.08</v>
+        <v>10.24</v>
       </c>
       <c r="G176" s="9" t="n">
         <v>1.28</v>
@@ -8987,7 +8987,7 @@
         <v>0.0</v>
       </c>
       <c r="K176" s="9" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="L176" s="7" t="s">
         <v>25</v>
@@ -9015,7 +9015,7 @@
         <v>5.55</v>
       </c>
       <c r="F177" s="9" t="n">
-        <v>11.1</v>
+        <v>5.55</v>
       </c>
       <c r="G177" s="9" t="n">
         <v>5.55</v>
@@ -9030,7 +9030,7 @@
         <v>0.0</v>
       </c>
       <c r="K177" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L177" s="7" t="s">
         <v>45</v>
@@ -9277,7 +9277,7 @@
         <v>11.76</v>
       </c>
       <c r="F183" s="9" t="n">
-        <v>35.28</v>
+        <v>58.8</v>
       </c>
       <c r="G183" s="9" t="n">
         <v>11.76</v>
@@ -9292,7 +9292,7 @@
         <v>0.0</v>
       </c>
       <c r="K183" s="9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L183" s="7" t="s">
         <v>134</v>
@@ -9363,7 +9363,7 @@
         <v>6.4</v>
       </c>
       <c r="F185" s="9" t="n">
-        <v>0.0</v>
+        <v>25.6</v>
       </c>
       <c r="G185" s="9" t="n">
         <v>6.4</v>
@@ -9378,7 +9378,7 @@
         <v>0.0</v>
       </c>
       <c r="K185" s="9" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="L185" s="7" t="s">
         <v>25</v>
@@ -9701,14 +9701,14 @@
       <c r="D193" s="8"/>
       <c r="E193" s="10"/>
       <c r="F193" s="10" t="n">
-        <v>22066.06</v>
+        <v>21988.92</v>
       </c>
       <c r="G193" s="10"/>
       <c r="H193" s="8"/>
       <c r="I193" s="10"/>
       <c r="J193" s="10"/>
       <c r="K193" s="10" t="n">
-        <v>731.0</v>
+        <v>806.0</v>
       </c>
       <c r="L193" s="8"/>
       <c r="M193" s="8"/>
@@ -9725,14 +9725,14 @@
       <c r="D195" s="8"/>
       <c r="E195" s="10"/>
       <c r="F195" s="10" t="n">
-        <v>22066.06</v>
+        <v>21988.92</v>
       </c>
       <c r="G195" s="10"/>
       <c r="H195" s="8"/>
       <c r="I195" s="10"/>
       <c r="J195" s="10"/>
       <c r="K195" s="10" t="n">
-        <v>731.0</v>
+        <v>806.0</v>
       </c>
       <c r="L195" s="8"/>
       <c r="M195" s="8"/>

--- a/Shop Files/osceola.xlsx
+++ b/Shop Files/osceola.xlsx
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>07/22/2025 07:22 AM</t>
+      <t>09/23/2025 07:18 PM</t>
     </r>
   </si>
   <si>
@@ -1181,172 +1181,172 @@
     <t>RR40</t>
   </si>
   <si>
+    <t>6795416</t>
+  </si>
+  <si>
+    <t>Chrome Pop-Up Bathroom Sink Drain</t>
+  </si>
+  <si>
+    <t>6640817</t>
+  </si>
+  <si>
+    <t>Chrome Toilet Tank Lever with Metal Arm</t>
+  </si>
+  <si>
+    <t>24-89576</t>
+  </si>
+  <si>
+    <t>DUAL THRD AERATOR 2.2GPM</t>
+  </si>
+  <si>
+    <t>Home Depot Pro</t>
+  </si>
+  <si>
+    <t>6640338</t>
+  </si>
+  <si>
+    <t>Fluidmaster? 400A Universal Toilet Fill Valve</t>
+  </si>
+  <si>
+    <t>6641420</t>
+  </si>
+  <si>
+    <t>Korky? Plus Toilet Flapper</t>
+  </si>
+  <si>
+    <t>35-52592</t>
+  </si>
+  <si>
+    <t>KTCHN FAUCET W/ 2 HDL CHR LF</t>
+  </si>
+  <si>
+    <t>6791369</t>
+  </si>
+  <si>
+    <t>Plumb Works Bathroom Sink Drain Clevis Clips</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 2 pk</t>
+  </si>
+  <si>
+    <t>6784373</t>
+  </si>
+  <si>
+    <t>Plumb Works? 6" Shower Arm with Flange</t>
+  </si>
+  <si>
+    <t>6790336</t>
+  </si>
+  <si>
+    <t>Plumb Works? Chrome Diverter Tub Spout</t>
+  </si>
+  <si>
+    <t>13-3863</t>
+  </si>
+  <si>
+    <t>Premier Hot &amp; Cold buttons</t>
+  </si>
+  <si>
+    <t>set of 2</t>
+  </si>
+  <si>
+    <t>6640137</t>
+  </si>
+  <si>
+    <t>ProLine 3/8" PVC Toilet Supply Line</t>
+  </si>
+  <si>
+    <t>RR48</t>
+  </si>
+  <si>
+    <t>263727</t>
+  </si>
+  <si>
+    <t>replacement faucet handle</t>
+  </si>
+  <si>
+    <t>HD Supply</t>
+  </si>
+  <si>
+    <t>6642365</t>
+  </si>
+  <si>
+    <t>Replacement Toilet Flange Repair Kit</t>
+  </si>
+  <si>
+    <t>6641311</t>
+  </si>
+  <si>
+    <t>Replacement Toilet Tank-to-Bowl Kit</t>
+  </si>
+  <si>
+    <t>6736000</t>
+  </si>
+  <si>
+    <t>Shower/Bath Faucet Set</t>
+  </si>
+  <si>
+    <t>6794361</t>
+  </si>
+  <si>
+    <t>Sink Supply Line</t>
+  </si>
+  <si>
+    <t>RR43</t>
+  </si>
+  <si>
+    <t>6791164</t>
+  </si>
+  <si>
+    <t>Stainless Steel Kitchen Sink Strainer Basket KIT</t>
+  </si>
+  <si>
+    <t>6704575</t>
+  </si>
+  <si>
+    <t>Tuscany Toilet</t>
+  </si>
+  <si>
+    <t>6791110</t>
+  </si>
+  <si>
+    <t>Universal Kitchen Sink Strainer-Basket ONLY</t>
+  </si>
+  <si>
+    <t>Zznotuse</t>
+  </si>
+  <si>
+    <t>Zzz do not use</t>
+  </si>
+  <si>
+    <t>ZZZ2CANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>1361012</t>
+  </si>
+  <si>
+    <t>ZZZ8' x 11" press board for below sinks</t>
+  </si>
+  <si>
+    <t>6641269</t>
+  </si>
+  <si>
+    <t>ZZZOateyCANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>6641298</t>
+  </si>
+  <si>
+    <t>ZZZZZ CAN NOT DELETE- NOT IN USE</t>
+  </si>
+  <si>
+    <t>ZZZZZZZZ- 1/2 female connector for shower valve- DO NOT USE</t>
+  </si>
+  <si>
     <t>6795388</t>
   </si>
   <si>
-    <t>Bronze Pop-Up Bathroom Sink Drain Stopper</t>
-  </si>
-  <si>
-    <t>6795416</t>
-  </si>
-  <si>
-    <t>Chrome Pop-Up Bathroom Sink Drain</t>
-  </si>
-  <si>
-    <t>6640817</t>
-  </si>
-  <si>
-    <t>Chrome Toilet Tank Lever with Metal Arm</t>
-  </si>
-  <si>
-    <t>24-89576</t>
-  </si>
-  <si>
-    <t>DUAL THRD AERATOR 2.2GPM</t>
-  </si>
-  <si>
-    <t>Home Depot Pro</t>
-  </si>
-  <si>
-    <t>6640338</t>
-  </si>
-  <si>
-    <t>Fluidmaster? 400A Universal Toilet Fill Valve</t>
-  </si>
-  <si>
-    <t>6641420</t>
-  </si>
-  <si>
-    <t>Korky? Plus Toilet Flapper</t>
-  </si>
-  <si>
-    <t>35-52592</t>
-  </si>
-  <si>
-    <t>KTCHN FAUCET W/ 2 HDL CHR LF</t>
-  </si>
-  <si>
-    <t>6791369</t>
-  </si>
-  <si>
-    <t>Plumb Works Bathroom Sink Drain Clevis Clips</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 2 pk</t>
-  </si>
-  <si>
-    <t>6784373</t>
-  </si>
-  <si>
-    <t>Plumb Works? 6" Shower Arm with Flange</t>
-  </si>
-  <si>
-    <t>6790336</t>
-  </si>
-  <si>
-    <t>Plumb Works? Chrome Diverter Tub Spout</t>
-  </si>
-  <si>
-    <t>13-3863</t>
-  </si>
-  <si>
-    <t>Premier Hot &amp; Cold buttons</t>
-  </si>
-  <si>
-    <t>set of 2</t>
-  </si>
-  <si>
-    <t>6640137</t>
-  </si>
-  <si>
-    <t>ProLine 3/8" PVC Toilet Supply Line</t>
-  </si>
-  <si>
-    <t>RR48</t>
-  </si>
-  <si>
-    <t>263727</t>
-  </si>
-  <si>
-    <t>replacement faucet handle</t>
-  </si>
-  <si>
-    <t>HD Supply</t>
-  </si>
-  <si>
-    <t>6642365</t>
-  </si>
-  <si>
-    <t>Replacement Toilet Flange Repair Kit</t>
-  </si>
-  <si>
-    <t>6641311</t>
-  </si>
-  <si>
-    <t>Replacement Toilet Tank-to-Bowl Kit</t>
-  </si>
-  <si>
-    <t>6736000</t>
-  </si>
-  <si>
-    <t>Shower/Bath Faucet Set</t>
-  </si>
-  <si>
-    <t>6794361</t>
-  </si>
-  <si>
-    <t>Sink Supply Line</t>
-  </si>
-  <si>
-    <t>RR43</t>
-  </si>
-  <si>
-    <t>6791164</t>
-  </si>
-  <si>
-    <t>Stainless Steel Kitchen Sink Strainer Basket KIT</t>
-  </si>
-  <si>
-    <t>6704575</t>
-  </si>
-  <si>
-    <t>Tuscany Toilet</t>
-  </si>
-  <si>
-    <t>6791110</t>
-  </si>
-  <si>
-    <t>Universal Kitchen Sink Strainer-Basket ONLY</t>
-  </si>
-  <si>
-    <t>Zznotuse</t>
-  </si>
-  <si>
-    <t>Zzz do not use</t>
-  </si>
-  <si>
-    <t>ZZZ2CANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>1361012</t>
-  </si>
-  <si>
-    <t>ZZZ8' x 11" press board for below sinks</t>
-  </si>
-  <si>
-    <t>6641269</t>
-  </si>
-  <si>
-    <t>ZZZOateyCANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>6641298</t>
-  </si>
-  <si>
-    <t>ZZZZZ CAN NOT DELETE- NOT IN USE</t>
-  </si>
-  <si>
-    <t>ZZZZZZZZ- 1/2 female connector for shower valve- DO NOT USE</t>
+    <t>ZZZZZZZZZ-DO NOT USE</t>
   </si>
   <si>
     <t>Total</t>
@@ -1851,7 +1851,7 @@
         <v>1.06</v>
       </c>
       <c r="F11" s="9" t="n">
-        <v>13.78</v>
+        <v>15.9</v>
       </c>
       <c r="G11" s="9" t="n">
         <v>1.06</v>
@@ -1866,7 +1866,7 @@
         <v>0.0</v>
       </c>
       <c r="K11" s="9" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>27</v>
@@ -1894,7 +1894,7 @@
         <v>4.64</v>
       </c>
       <c r="F12" s="9" t="n">
-        <v>4.64</v>
+        <v>0.0</v>
       </c>
       <c r="G12" s="9" t="n">
         <v>4.64</v>
@@ -1909,7 +1909,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" s="9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>31</v>
@@ -1937,7 +1937,7 @@
         <v>37.44</v>
       </c>
       <c r="F13" s="9" t="n">
-        <v>149.76</v>
+        <v>37.44</v>
       </c>
       <c r="G13" s="9" t="n">
         <v>37.44</v>
@@ -1952,7 +1952,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" s="9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>25</v>
@@ -1978,7 +1978,7 @@
         <v>10.33</v>
       </c>
       <c r="F14" s="9" t="n">
-        <v>72.31</v>
+        <v>41.32</v>
       </c>
       <c r="G14" s="9" t="n">
         <v>10.33</v>
@@ -1993,7 +1993,7 @@
         <v>0.0</v>
       </c>
       <c r="K14" s="9" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>25</v>
@@ -2019,7 +2019,7 @@
         <v>1.81</v>
       </c>
       <c r="F15" s="9" t="n">
-        <v>21.72</v>
+        <v>28.96</v>
       </c>
       <c r="G15" s="9" t="n">
         <v>1.81</v>
@@ -2034,7 +2034,7 @@
         <v>0.0</v>
       </c>
       <c r="K15" s="9" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>27</v>
@@ -2062,7 +2062,7 @@
         <v>6.71</v>
       </c>
       <c r="F16" s="9" t="n">
-        <v>67.1</v>
+        <v>13.42</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>6.71</v>
@@ -2077,7 +2077,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" s="9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>31</v>
@@ -2105,7 +2105,7 @@
         <v>40.11</v>
       </c>
       <c r="F17" s="9" t="n">
-        <v>160.44</v>
+        <v>80.22</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>40.11</v>
@@ -2120,7 +2120,7 @@
         <v>0.0</v>
       </c>
       <c r="K17" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>25</v>
@@ -2146,7 +2146,7 @@
         <v>11.47</v>
       </c>
       <c r="F18" s="9" t="n">
-        <v>34.41</v>
+        <v>45.88</v>
       </c>
       <c r="G18" s="9" t="n">
         <v>11.47</v>
@@ -2161,7 +2161,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>25</v>
@@ -2275,7 +2275,7 @@
         <v>437.63</v>
       </c>
       <c r="F21" s="9" t="n">
-        <v>875.26</v>
+        <v>437.63</v>
       </c>
       <c r="G21" s="9" t="n">
         <v>437.63</v>
@@ -2290,7 +2290,7 @@
         <v>0.0</v>
       </c>
       <c r="K21" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>48</v>
@@ -2361,7 +2361,7 @@
         <v>534.99</v>
       </c>
       <c r="F23" s="9" t="n">
-        <v>3209.94</v>
+        <v>3744.93</v>
       </c>
       <c r="G23" s="9" t="n">
         <v>534.99</v>
@@ -2376,7 +2376,7 @@
         <v>0.0</v>
       </c>
       <c r="K23" s="9" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>48</v>
@@ -2449,7 +2449,7 @@
         <v>17.1</v>
       </c>
       <c r="F25" s="9" t="n">
-        <v>34.2</v>
+        <v>17.1</v>
       </c>
       <c r="G25" s="9" t="n">
         <v>17.1</v>
@@ -2464,7 +2464,7 @@
         <v>0.0</v>
       </c>
       <c r="K25" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>45</v>
@@ -2494,7 +2494,7 @@
         <v>0.67</v>
       </c>
       <c r="F26" s="9" t="n">
-        <v>8.04</v>
+        <v>8.71</v>
       </c>
       <c r="G26" s="9" t="n">
         <v>0.67</v>
@@ -2509,7 +2509,7 @@
         <v>0.0</v>
       </c>
       <c r="K26" s="9" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>31</v>
@@ -2891,7 +2891,7 @@
         <v>54.71</v>
       </c>
       <c r="F35" s="9" t="n">
-        <v>54.71</v>
+        <v>218.84</v>
       </c>
       <c r="G35" s="9" t="n">
         <v>54.71</v>
@@ -2906,7 +2906,7 @@
         <v>0.0</v>
       </c>
       <c r="K35" s="9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>25</v>
@@ -2936,7 +2936,7 @@
         <v>1.11</v>
       </c>
       <c r="F36" s="9" t="n">
-        <v>31.08</v>
+        <v>37.74</v>
       </c>
       <c r="G36" s="9" t="n">
         <v>1.11</v>
@@ -2951,7 +2951,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" s="9" t="n">
-        <v>28.0</v>
+        <v>34.0</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>94</v>
@@ -2981,7 +2981,7 @@
         <v>2.08</v>
       </c>
       <c r="F37" s="9" t="n">
-        <v>14.56</v>
+        <v>18.72</v>
       </c>
       <c r="G37" s="9" t="n">
         <v>2.08</v>
@@ -2996,7 +2996,7 @@
         <v>0.0</v>
       </c>
       <c r="K37" s="9" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>25</v>
@@ -3026,7 +3026,7 @@
         <v>4.54</v>
       </c>
       <c r="F38" s="9" t="n">
-        <v>99.88</v>
+        <v>18.16</v>
       </c>
       <c r="G38" s="9" t="n">
         <v>4.54</v>
@@ -3041,7 +3041,7 @@
         <v>0.0</v>
       </c>
       <c r="K38" s="9" t="n">
-        <v>22.0</v>
+        <v>4.0</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>101</v>
@@ -3069,7 +3069,7 @@
         <v>0.45</v>
       </c>
       <c r="F39" s="9" t="n">
-        <v>16.2</v>
+        <v>15.75</v>
       </c>
       <c r="G39" s="9" t="n">
         <v>0.45</v>
@@ -3084,7 +3084,7 @@
         <v>0.0</v>
       </c>
       <c r="K39" s="9" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>104</v>
@@ -3157,7 +3157,7 @@
         <v>2.04</v>
       </c>
       <c r="F41" s="9" t="n">
-        <v>30.6</v>
+        <v>32.64</v>
       </c>
       <c r="G41" s="9" t="n">
         <v>2.04</v>
@@ -3172,7 +3172,7 @@
         <v>0.0</v>
       </c>
       <c r="K41" s="9" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>111</v>
@@ -3550,7 +3550,7 @@
         <v>11.72</v>
       </c>
       <c r="F50" s="9" t="n">
-        <v>58.6</v>
+        <v>46.88</v>
       </c>
       <c r="G50" s="9" t="n">
         <v>11.72</v>
@@ -3565,7 +3565,7 @@
         <v>0.0</v>
       </c>
       <c r="K50" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>134</v>
@@ -3632,7 +3632,7 @@
         <v>23.53</v>
       </c>
       <c r="F52" s="9" t="n">
-        <v>117.65</v>
+        <v>94.12</v>
       </c>
       <c r="G52" s="9" t="n">
         <v>23.53</v>
@@ -3647,7 +3647,7 @@
         <v>0.0</v>
       </c>
       <c r="K52" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>134</v>
@@ -3722,7 +3722,7 @@
         <v>2.49</v>
       </c>
       <c r="F54" s="9" t="n">
-        <v>54.78</v>
+        <v>52.29</v>
       </c>
       <c r="G54" s="9" t="n">
         <v>2.49</v>
@@ -3737,7 +3737,7 @@
         <v>0.0</v>
       </c>
       <c r="K54" s="9" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>111</v>
@@ -4076,7 +4076,7 @@
         <v>7.47</v>
       </c>
       <c r="F62" s="9" t="n">
-        <v>29.88</v>
+        <v>37.35</v>
       </c>
       <c r="G62" s="9" t="n">
         <v>7.47</v>
@@ -4091,7 +4091,7 @@
         <v>0.0</v>
       </c>
       <c r="K62" s="9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L62" s="7" t="s">
         <v>134</v>
@@ -4459,7 +4459,7 @@
         <v>10.65</v>
       </c>
       <c r="F71" s="9" t="n">
-        <v>0.0</v>
+        <v>10.65</v>
       </c>
       <c r="G71" s="9" t="n">
         <v>10.65</v>
@@ -4474,7 +4474,7 @@
         <v>0.0</v>
       </c>
       <c r="K71" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L71" s="7" t="s">
         <v>48</v>
@@ -5344,7 +5344,7 @@
         <v>6.96</v>
       </c>
       <c r="F92" s="9" t="n">
-        <v>27.84</v>
+        <v>20.88</v>
       </c>
       <c r="G92" s="9" t="n">
         <v>6.96</v>
@@ -5359,7 +5359,7 @@
         <v>0.0</v>
       </c>
       <c r="K92" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="L92" s="7" t="s">
         <v>25</v>
@@ -5430,7 +5430,7 @@
         <v>9.62</v>
       </c>
       <c r="F94" s="9" t="n">
-        <v>28.86</v>
+        <v>48.1</v>
       </c>
       <c r="G94" s="9" t="n">
         <v>9.62</v>
@@ -5445,7 +5445,7 @@
         <v>0.0</v>
       </c>
       <c r="K94" s="9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L94" s="7" t="s">
         <v>25</v>
@@ -5645,7 +5645,7 @@
         <v>235.56</v>
       </c>
       <c r="F99" s="9" t="n">
-        <v>471.12</v>
+        <v>235.56</v>
       </c>
       <c r="G99" s="9" t="n">
         <v>235.56</v>
@@ -5660,7 +5660,7 @@
         <v>0.0</v>
       </c>
       <c r="K99" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L99" s="7" t="s">
         <v>45</v>
@@ -5729,7 +5729,7 @@
         <v>266.75</v>
       </c>
       <c r="F101" s="9" t="n">
-        <v>0.0</v>
+        <v>533.5</v>
       </c>
       <c r="G101" s="9" t="n">
         <v>266.75</v>
@@ -5744,7 +5744,7 @@
         <v>0.0</v>
       </c>
       <c r="K101" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L101" s="7" t="s">
         <v>48</v>
@@ -5772,7 +5772,7 @@
         <v>6.72</v>
       </c>
       <c r="F102" s="9" t="n">
-        <v>60.48</v>
+        <v>40.32</v>
       </c>
       <c r="G102" s="9" t="n">
         <v>6.72</v>
@@ -5787,7 +5787,7 @@
         <v>0.0</v>
       </c>
       <c r="K102" s="9" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="L102" s="7" t="s">
         <v>31</v>
@@ -5860,7 +5860,7 @@
         <v>13.89</v>
       </c>
       <c r="F104" s="9" t="n">
-        <v>125.01</v>
+        <v>97.23</v>
       </c>
       <c r="G104" s="9" t="n">
         <v>13.89</v>
@@ -5875,7 +5875,7 @@
         <v>0.0</v>
       </c>
       <c r="K104" s="9" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="L104" s="7" t="s">
         <v>31</v>
@@ -6313,7 +6313,7 @@
         <v>37.45</v>
       </c>
       <c r="F115" s="9" t="n">
-        <v>299.6</v>
+        <v>224.7</v>
       </c>
       <c r="G115" s="9" t="n">
         <v>37.45</v>
@@ -6328,7 +6328,7 @@
         <v>0.0</v>
       </c>
       <c r="K115" s="9" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="L115" s="7" t="s">
         <v>31</v>
@@ -6358,7 +6358,7 @@
         <v>37.45</v>
       </c>
       <c r="F116" s="9" t="n">
-        <v>262.15</v>
+        <v>224.7</v>
       </c>
       <c r="G116" s="9" t="n">
         <v>37.45</v>
@@ -6373,7 +6373,7 @@
         <v>0.0</v>
       </c>
       <c r="K116" s="9" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="L116" s="7" t="s">
         <v>31</v>
@@ -6491,7 +6491,7 @@
         <v>37.45</v>
       </c>
       <c r="F119" s="9" t="n">
-        <v>561.75</v>
+        <v>411.95</v>
       </c>
       <c r="G119" s="9" t="n">
         <v>37.45</v>
@@ -6506,7 +6506,7 @@
         <v>0.0</v>
       </c>
       <c r="K119" s="9" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="L119" s="7" t="s">
         <v>31</v>
@@ -6532,7 +6532,7 @@
         <v>37.45</v>
       </c>
       <c r="F120" s="9" t="n">
-        <v>262.15</v>
+        <v>299.6</v>
       </c>
       <c r="G120" s="9" t="n">
         <v>37.45</v>
@@ -6547,7 +6547,7 @@
         <v>0.0</v>
       </c>
       <c r="K120" s="9" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="L120" s="7" t="s">
         <v>31</v>
@@ -6747,7 +6747,7 @@
         <v>373.43</v>
       </c>
       <c r="F125" s="9" t="n">
-        <v>0.0</v>
+        <v>746.86</v>
       </c>
       <c r="G125" s="9" t="n">
         <v>373.43</v>
@@ -6762,7 +6762,7 @@
         <v>0.0</v>
       </c>
       <c r="K125" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L125" s="7" t="s">
         <v>48</v>
@@ -6790,7 +6790,7 @@
         <v>373.43</v>
       </c>
       <c r="F126" s="9" t="n">
-        <v>373.43</v>
+        <v>1493.72</v>
       </c>
       <c r="G126" s="9" t="n">
         <v>373.43</v>
@@ -6805,7 +6805,7 @@
         <v>0.0</v>
       </c>
       <c r="K126" s="9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="L126" s="7" t="s">
         <v>48</v>
@@ -7001,7 +7001,7 @@
         <v>10.69</v>
       </c>
       <c r="F131" s="9" t="n">
-        <v>85.52</v>
+        <v>53.45</v>
       </c>
       <c r="G131" s="9" t="n">
         <v>10.69</v>
@@ -7016,7 +7016,7 @@
         <v>0.0</v>
       </c>
       <c r="K131" s="9" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="L131" s="7" t="s">
         <v>31</v>
@@ -7134,7 +7134,7 @@
         <v>3.83</v>
       </c>
       <c r="F134" s="9" t="n">
-        <v>7.66</v>
+        <v>22.98</v>
       </c>
       <c r="G134" s="9" t="n">
         <v>3.83</v>
@@ -7149,7 +7149,7 @@
         <v>0.0</v>
       </c>
       <c r="K134" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="L134" s="7" t="s">
         <v>45</v>
@@ -7177,7 +7177,7 @@
         <v>127.33</v>
       </c>
       <c r="F135" s="9" t="n">
-        <v>381.99</v>
+        <v>127.33</v>
       </c>
       <c r="G135" s="9" t="n">
         <v>127.33</v>
@@ -7192,7 +7192,7 @@
         <v>0.0</v>
       </c>
       <c r="K135" s="9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="L135" s="7" t="s">
         <v>45</v>
@@ -7220,7 +7220,7 @@
         <v>127.33</v>
       </c>
       <c r="F136" s="9" t="n">
-        <v>254.66</v>
+        <v>381.99</v>
       </c>
       <c r="G136" s="9" t="n">
         <v>127.33</v>
@@ -7235,7 +7235,7 @@
         <v>0.0</v>
       </c>
       <c r="K136" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L136" s="7" t="s">
         <v>45</v>
@@ -7308,7 +7308,7 @@
         <v>10.15</v>
       </c>
       <c r="F138" s="9" t="n">
-        <v>172.55</v>
+        <v>131.95</v>
       </c>
       <c r="G138" s="9" t="n">
         <v>10.15</v>
@@ -7323,7 +7323,7 @@
         <v>0.0</v>
       </c>
       <c r="K138" s="9" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="L138" s="7" t="s">
         <v>111</v>
@@ -7572,7 +7572,7 @@
         <v>12.82</v>
       </c>
       <c r="F144" s="9" t="n">
-        <v>89.74</v>
+        <v>76.92</v>
       </c>
       <c r="G144" s="9" t="n">
         <v>12.82</v>
@@ -7587,7 +7587,7 @@
         <v>0.0</v>
       </c>
       <c r="K144" s="9" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="L144" s="7" t="s">
         <v>134</v>
@@ -7793,7 +7793,7 @@
         <v>0.39</v>
       </c>
       <c r="F149" s="9" t="n">
-        <v>5.07</v>
+        <v>3.12</v>
       </c>
       <c r="G149" s="9" t="n">
         <v>0.39</v>
@@ -7808,7 +7808,7 @@
         <v>0.0</v>
       </c>
       <c r="K149" s="9" t="n">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="L149" s="7" t="s">
         <v>31</v>
@@ -7881,7 +7881,7 @@
         <v>7.46</v>
       </c>
       <c r="F151" s="9" t="n">
-        <v>59.68</v>
+        <v>29.84</v>
       </c>
       <c r="G151" s="9" t="n">
         <v>7.46</v>
@@ -7896,7 +7896,7 @@
         <v>0.0</v>
       </c>
       <c r="K151" s="9" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="L151" s="7" t="s">
         <v>25</v>
@@ -8098,7 +8098,7 @@
         <v>3.95</v>
       </c>
       <c r="F156" s="9" t="n">
-        <v>7.9</v>
+        <v>3.95</v>
       </c>
       <c r="G156" s="9" t="n">
         <v>3.95</v>
@@ -8113,7 +8113,7 @@
         <v>0.0</v>
       </c>
       <c r="K156" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L156" s="7" t="s">
         <v>45</v>
@@ -8141,7 +8141,7 @@
         <v>8.55</v>
       </c>
       <c r="F157" s="9" t="n">
-        <v>25.65</v>
+        <v>42.75</v>
       </c>
       <c r="G157" s="9" t="n">
         <v>8.55</v>
@@ -8156,7 +8156,7 @@
         <v>0.0</v>
       </c>
       <c r="K157" s="9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="L157" s="7" t="s">
         <v>25</v>
@@ -8186,7 +8186,7 @@
         <v>8.24</v>
       </c>
       <c r="F158" s="9" t="n">
-        <v>32.96</v>
+        <v>8.24</v>
       </c>
       <c r="G158" s="9" t="n">
         <v>8.98</v>
@@ -8201,7 +8201,7 @@
         <v>0.74</v>
       </c>
       <c r="K158" s="9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="L158" s="7" t="s">
         <v>25</v>
@@ -8231,7 +8231,7 @@
         <v>5.99</v>
       </c>
       <c r="F159" s="9" t="n">
-        <v>35.94</v>
+        <v>23.96</v>
       </c>
       <c r="G159" s="9" t="n">
         <v>6.59</v>
@@ -8246,7 +8246,7 @@
         <v>0.0</v>
       </c>
       <c r="K159" s="9" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="L159" s="7" t="s">
         <v>101</v>
@@ -8276,7 +8276,7 @@
         <v>9.62</v>
       </c>
       <c r="F160" s="9" t="n">
-        <v>19.24</v>
+        <v>9.62</v>
       </c>
       <c r="G160" s="9" t="n">
         <v>9.62</v>
@@ -8291,7 +8291,7 @@
         <v>0.0</v>
       </c>
       <c r="K160" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L160" s="7" t="s">
         <v>45</v>
@@ -8362,7 +8362,7 @@
         <v>4.78</v>
       </c>
       <c r="F162" s="9" t="n">
-        <v>9.56</v>
+        <v>0.0</v>
       </c>
       <c r="G162" s="9" t="n">
         <v>4.78</v>
@@ -8377,7 +8377,7 @@
         <v>0.0</v>
       </c>
       <c r="K162" s="9" t="n">
-        <v>2.0</v>
+        <v>-2.0</v>
       </c>
       <c r="L162" s="7" t="s">
         <v>45</v>
@@ -8403,7 +8403,7 @@
         <v>21.2</v>
       </c>
       <c r="F163" s="9" t="n">
-        <v>84.8</v>
+        <v>63.6</v>
       </c>
       <c r="G163" s="9" t="n">
         <v>21.2</v>
@@ -8418,7 +8418,7 @@
         <v>0.0</v>
       </c>
       <c r="K163" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="L163" s="7" t="s">
         <v>134</v>
@@ -8446,7 +8446,7 @@
         <v>10.56</v>
       </c>
       <c r="F164" s="9" t="n">
-        <v>31.68</v>
+        <v>42.24</v>
       </c>
       <c r="G164" s="9" t="n">
         <v>10.56</v>
@@ -8461,7 +8461,7 @@
         <v>0.0</v>
       </c>
       <c r="K164" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L164" s="7" t="s">
         <v>25</v>
@@ -8489,7 +8489,7 @@
         <v>21.39</v>
       </c>
       <c r="F165" s="9" t="n">
-        <v>42.78</v>
+        <v>21.39</v>
       </c>
       <c r="G165" s="9" t="n">
         <v>21.39</v>
@@ -8504,7 +8504,7 @@
         <v>0.0</v>
       </c>
       <c r="K165" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L165" s="7" t="s">
         <v>45</v>
@@ -8531,13 +8531,13 @@
         <v>350</v>
       </c>
       <c r="E166" s="9" t="n">
-        <v>6.41</v>
+        <v>11.76</v>
       </c>
       <c r="F166" s="9" t="n">
-        <v>32.05</v>
+        <v>23.52</v>
       </c>
       <c r="G166" s="9" t="n">
-        <v>6.41</v>
+        <v>11.76</v>
       </c>
       <c r="H166" s="7" t="s">
         <v>351</v>
@@ -8549,10 +8549,10 @@
         <v>0.0</v>
       </c>
       <c r="K166" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="L166" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M166" s="7" t="s">
         <v>20</v>
@@ -8574,13 +8574,13 @@
         <v>350</v>
       </c>
       <c r="E167" s="9" t="n">
-        <v>11.76</v>
+        <v>6.41</v>
       </c>
       <c r="F167" s="9" t="n">
-        <v>23.52</v>
+        <v>0.0</v>
       </c>
       <c r="G167" s="9" t="n">
-        <v>11.76</v>
+        <v>6.41</v>
       </c>
       <c r="H167" s="7" t="s">
         <v>351</v>
@@ -8592,10 +8592,10 @@
         <v>0.0</v>
       </c>
       <c r="K167" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="L167" s="7" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="M167" s="7" t="s">
         <v>20</v>
@@ -8612,18 +8612,20 @@
       <c r="B168" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="C168" s="7"/>
+      <c r="C168" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="D168" s="7" t="s">
         <v>350</v>
       </c>
       <c r="E168" s="9" t="n">
-        <v>6.41</v>
+        <v>1.31</v>
       </c>
       <c r="F168" s="9" t="n">
-        <v>25.64</v>
+        <v>5.24</v>
       </c>
       <c r="G168" s="9" t="n">
-        <v>6.41</v>
+        <v>1.31</v>
       </c>
       <c r="H168" s="7" t="s">
         <v>351</v>
@@ -8645,30 +8647,28 @@
       </c>
       <c r="N168" s="7"/>
       <c r="O168" s="7" t="s">
-        <v>54</v>
+        <v>379</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>157</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="C169" s="7"/>
       <c r="D169" s="7" t="s">
         <v>350</v>
       </c>
       <c r="E169" s="9" t="n">
-        <v>1.31</v>
+        <v>9.61</v>
       </c>
       <c r="F169" s="9" t="n">
-        <v>5.24</v>
+        <v>9.61</v>
       </c>
       <c r="G169" s="9" t="n">
-        <v>1.31</v>
+        <v>9.61</v>
       </c>
       <c r="H169" s="7" t="s">
         <v>351</v>
@@ -8680,17 +8680,17 @@
         <v>0.0</v>
       </c>
       <c r="K169" s="9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="L169" s="7" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="M169" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N169" s="7"/>
       <c r="O169" s="7" t="s">
-        <v>381</v>
+        <v>54</v>
       </c>
     </row>
     <row r="170">
@@ -8700,18 +8700,20 @@
       <c r="B170" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="C170" s="7"/>
+      <c r="C170" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="D170" s="7" t="s">
         <v>350</v>
       </c>
       <c r="E170" s="9" t="n">
-        <v>9.61</v>
+        <v>4.26</v>
       </c>
       <c r="F170" s="9" t="n">
-        <v>28.83</v>
+        <v>8.52</v>
       </c>
       <c r="G170" s="9" t="n">
-        <v>9.61</v>
+        <v>4.26</v>
       </c>
       <c r="H170" s="7" t="s">
         <v>351</v>
@@ -8723,10 +8725,10 @@
         <v>0.0</v>
       </c>
       <c r="K170" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L170" s="7" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="M170" s="7" t="s">
         <v>20</v>
@@ -8743,20 +8745,18 @@
       <c r="B171" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="C171" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="C171" s="7"/>
       <c r="D171" s="7" t="s">
         <v>350</v>
       </c>
       <c r="E171" s="9" t="n">
-        <v>4.26</v>
+        <v>37.66</v>
       </c>
       <c r="F171" s="9" t="n">
-        <v>21.3</v>
+        <v>188.3</v>
       </c>
       <c r="G171" s="9" t="n">
-        <v>4.26</v>
+        <v>37.66</v>
       </c>
       <c r="H171" s="7" t="s">
         <v>351</v>
@@ -8771,14 +8771,14 @@
         <v>5.0</v>
       </c>
       <c r="L171" s="7" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="M171" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N171" s="7"/>
       <c r="O171" s="7" t="s">
-        <v>54</v>
+        <v>379</v>
       </c>
     </row>
     <row r="172">
@@ -8788,18 +8788,20 @@
       <c r="B172" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="C172" s="7"/>
+      <c r="C172" s="7" t="s">
+        <v>388</v>
+      </c>
       <c r="D172" s="7" t="s">
         <v>350</v>
       </c>
       <c r="E172" s="9" t="n">
-        <v>37.66</v>
+        <v>2.32</v>
       </c>
       <c r="F172" s="9" t="n">
-        <v>150.64</v>
+        <v>18.56</v>
       </c>
       <c r="G172" s="9" t="n">
-        <v>37.66</v>
+        <v>2.32</v>
       </c>
       <c r="H172" s="7" t="s">
         <v>351</v>
@@ -8811,40 +8813,38 @@
         <v>0.0</v>
       </c>
       <c r="K172" s="9" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="L172" s="7" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="M172" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N172" s="7"/>
       <c r="O172" s="7" t="s">
-        <v>381</v>
+        <v>54</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C173" s="7" t="s">
         <v>390</v>
       </c>
+      <c r="C173" s="7"/>
       <c r="D173" s="7" t="s">
         <v>350</v>
       </c>
       <c r="E173" s="9" t="n">
-        <v>2.32</v>
+        <v>9.62</v>
       </c>
       <c r="F173" s="9" t="n">
-        <v>18.56</v>
+        <v>19.24</v>
       </c>
       <c r="G173" s="9" t="n">
-        <v>2.32</v>
+        <v>9.62</v>
       </c>
       <c r="H173" s="7" t="s">
         <v>351</v>
@@ -8856,10 +8856,10 @@
         <v>0.0</v>
       </c>
       <c r="K173" s="9" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="L173" s="7" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="M173" s="7" t="s">
         <v>20</v>
@@ -8881,13 +8881,13 @@
         <v>350</v>
       </c>
       <c r="E174" s="9" t="n">
-        <v>9.62</v>
+        <v>19.25</v>
       </c>
       <c r="F174" s="9" t="n">
-        <v>19.24</v>
+        <v>77.0</v>
       </c>
       <c r="G174" s="9" t="n">
-        <v>9.62</v>
+        <v>19.25</v>
       </c>
       <c r="H174" s="7" t="s">
         <v>351</v>
@@ -8899,10 +8899,10 @@
         <v>0.0</v>
       </c>
       <c r="K174" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="L174" s="7" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="M174" s="7" t="s">
         <v>20</v>
@@ -8919,18 +8919,20 @@
       <c r="B175" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="C175" s="7"/>
+      <c r="C175" s="7" t="s">
+        <v>395</v>
+      </c>
       <c r="D175" s="7" t="s">
         <v>350</v>
       </c>
       <c r="E175" s="9" t="n">
-        <v>19.25</v>
+        <v>1.28</v>
       </c>
       <c r="F175" s="9" t="n">
-        <v>77.0</v>
+        <v>11.52</v>
       </c>
       <c r="G175" s="9" t="n">
-        <v>19.25</v>
+        <v>1.28</v>
       </c>
       <c r="H175" s="7" t="s">
         <v>351</v>
@@ -8942,43 +8944,41 @@
         <v>0.0</v>
       </c>
       <c r="K175" s="9" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="L175" s="7" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="M175" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N175" s="7"/>
       <c r="O175" s="7" t="s">
-        <v>54</v>
+        <v>379</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="C176" s="7" t="s">
         <v>397</v>
       </c>
+      <c r="C176" s="7"/>
       <c r="D176" s="7" t="s">
         <v>350</v>
       </c>
       <c r="E176" s="9" t="n">
-        <v>1.28</v>
+        <v>5.55</v>
       </c>
       <c r="F176" s="9" t="n">
-        <v>10.24</v>
+        <v>11.1</v>
       </c>
       <c r="G176" s="9" t="n">
-        <v>1.28</v>
+        <v>5.55</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="I176" s="9" t="n">
         <v>0.0</v>
@@ -8987,41 +8987,43 @@
         <v>0.0</v>
       </c>
       <c r="K176" s="9" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="L176" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M176" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N176" s="7"/>
+      <c r="N176" s="7" t="s">
+        <v>398</v>
+      </c>
       <c r="O176" s="7" t="s">
-        <v>381</v>
+        <v>54</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C177" s="7"/>
       <c r="D177" s="7" t="s">
         <v>350</v>
       </c>
       <c r="E177" s="9" t="n">
-        <v>5.55</v>
+        <v>2.45</v>
       </c>
       <c r="F177" s="9" t="n">
-        <v>5.55</v>
+        <v>14.7</v>
       </c>
       <c r="G177" s="9" t="n">
-        <v>5.55</v>
+        <v>2.45</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="I177" s="9" t="n">
         <v>0.0</v>
@@ -9030,40 +9032,38 @@
         <v>0.0</v>
       </c>
       <c r="K177" s="9" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="L177" s="7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M177" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N177" s="7" t="s">
-        <v>400</v>
-      </c>
+      <c r="N177" s="7"/>
       <c r="O177" s="7" t="s">
-        <v>54</v>
+        <v>401</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C178" s="7"/>
       <c r="D178" s="7" t="s">
         <v>350</v>
       </c>
       <c r="E178" s="9" t="n">
-        <v>2.45</v>
+        <v>7.48</v>
       </c>
       <c r="F178" s="9" t="n">
-        <v>14.7</v>
+        <v>14.96</v>
       </c>
       <c r="G178" s="9" t="n">
-        <v>2.45</v>
+        <v>7.48</v>
       </c>
       <c r="H178" s="7" t="s">
         <v>351</v>
@@ -9075,17 +9075,17 @@
         <v>0.0</v>
       </c>
       <c r="K178" s="9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="L178" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M178" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N178" s="7"/>
       <c r="O178" s="7" t="s">
-        <v>403</v>
+        <v>54</v>
       </c>
     </row>
     <row r="179">
@@ -9103,7 +9103,7 @@
         <v>7.48</v>
       </c>
       <c r="F179" s="9" t="n">
-        <v>14.96</v>
+        <v>0.0</v>
       </c>
       <c r="G179" s="9" t="n">
         <v>7.48</v>
@@ -9118,7 +9118,7 @@
         <v>0.0</v>
       </c>
       <c r="K179" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="L179" s="7" t="s">
         <v>45</v>
@@ -9143,16 +9143,16 @@
         <v>350</v>
       </c>
       <c r="E180" s="9" t="n">
-        <v>7.48</v>
+        <v>73.83</v>
       </c>
       <c r="F180" s="9" t="n">
-        <v>14.96</v>
+        <v>73.83</v>
       </c>
       <c r="G180" s="9" t="n">
-        <v>7.48</v>
+        <v>73.83</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="I180" s="9" t="n">
         <v>0.0</v>
@@ -9161,7 +9161,7 @@
         <v>0.0</v>
       </c>
       <c r="K180" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L180" s="7" t="s">
         <v>45</v>
@@ -9186,13 +9186,13 @@
         <v>350</v>
       </c>
       <c r="E181" s="9" t="n">
-        <v>73.83</v>
+        <v>5.34</v>
       </c>
       <c r="F181" s="9" t="n">
-        <v>147.66</v>
+        <v>10.68</v>
       </c>
       <c r="G181" s="9" t="n">
-        <v>73.83</v>
+        <v>5.34</v>
       </c>
       <c r="H181" s="7" t="s">
         <v>371</v>
@@ -9207,38 +9207,40 @@
         <v>2.0</v>
       </c>
       <c r="L181" s="7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M181" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N181" s="7"/>
+      <c r="N181" s="7" t="s">
+        <v>410</v>
+      </c>
       <c r="O181" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C182" s="7"/>
       <c r="D182" s="7" t="s">
         <v>350</v>
       </c>
       <c r="E182" s="9" t="n">
-        <v>5.34</v>
+        <v>11.76</v>
       </c>
       <c r="F182" s="9" t="n">
-        <v>32.04</v>
+        <v>58.8</v>
       </c>
       <c r="G182" s="9" t="n">
-        <v>5.34</v>
+        <v>11.76</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="I182" s="9" t="n">
         <v>0.0</v>
@@ -9247,17 +9249,15 @@
         <v>0.0</v>
       </c>
       <c r="K182" s="9" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="L182" s="7" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="M182" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N182" s="7" t="s">
-        <v>412</v>
-      </c>
+      <c r="N182" s="7"/>
       <c r="O182" s="7" t="s">
         <v>54</v>
       </c>
@@ -9274,16 +9274,16 @@
         <v>350</v>
       </c>
       <c r="E183" s="9" t="n">
-        <v>11.76</v>
+        <v>105.93</v>
       </c>
       <c r="F183" s="9" t="n">
-        <v>58.8</v>
+        <v>105.93</v>
       </c>
       <c r="G183" s="9" t="n">
-        <v>11.76</v>
+        <v>105.93</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="I183" s="9" t="n">
         <v>0.0</v>
@@ -9292,10 +9292,10 @@
         <v>0.0</v>
       </c>
       <c r="K183" s="9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="L183" s="7" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="M183" s="7" t="s">
         <v>20</v>
@@ -9317,16 +9317,16 @@
         <v>350</v>
       </c>
       <c r="E184" s="9" t="n">
-        <v>105.93</v>
+        <v>6.4</v>
       </c>
       <c r="F184" s="9" t="n">
-        <v>211.86</v>
+        <v>0.0</v>
       </c>
       <c r="G184" s="9" t="n">
-        <v>105.93</v>
+        <v>6.4</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="I184" s="9" t="n">
         <v>0.0</v>
@@ -9335,10 +9335,10 @@
         <v>0.0</v>
       </c>
       <c r="K184" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="L184" s="7" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="M184" s="7" t="s">
         <v>20</v>
@@ -9350,27 +9350,25 @@
     </row>
     <row r="185">
       <c r="A185" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B185" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="C185" s="7"/>
       <c r="D185" s="7" t="s">
         <v>350</v>
       </c>
       <c r="E185" s="9" t="n">
-        <v>6.4</v>
+        <v>73.83</v>
       </c>
       <c r="F185" s="9" t="n">
-        <v>25.6</v>
+        <v>0.0</v>
       </c>
       <c r="G185" s="9" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H185" s="7" t="s">
-        <v>351</v>
-      </c>
+        <v>73.83</v>
+      </c>
+      <c r="H185" s="7"/>
       <c r="I185" s="9" t="n">
         <v>0.0</v>
       </c>
@@ -9378,10 +9376,10 @@
         <v>0.0</v>
       </c>
       <c r="K185" s="9" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="L185" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M185" s="7" t="s">
         <v>20</v>
@@ -9392,26 +9390,26 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="7" t="s">
-        <v>408</v>
-      </c>
+      <c r="A186" s="7"/>
       <c r="B186" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C186" s="7"/>
       <c r="D186" s="7" t="s">
         <v>350</v>
       </c>
       <c r="E186" s="9" t="n">
-        <v>73.83</v>
+        <v>21.2</v>
       </c>
       <c r="F186" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="G186" s="9" t="n">
-        <v>73.83</v>
-      </c>
-      <c r="H186" s="7"/>
+        <v>21.2</v>
+      </c>
+      <c r="H186" s="7" t="s">
+        <v>351</v>
+      </c>
       <c r="I186" s="9" t="n">
         <v>0.0</v>
       </c>
@@ -9422,7 +9420,7 @@
         <v>0.0</v>
       </c>
       <c r="L186" s="7" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="M186" s="7" t="s">
         <v>20</v>
@@ -9433,22 +9431,26 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="7"/>
+      <c r="A187" s="7" t="s">
+        <v>415</v>
+      </c>
       <c r="B187" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="C187" s="7"/>
+        <v>419</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>346</v>
+      </c>
       <c r="D187" s="7" t="s">
         <v>350</v>
       </c>
       <c r="E187" s="9" t="n">
-        <v>21.2</v>
+        <v>5.34</v>
       </c>
       <c r="F187" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="G187" s="9" t="n">
-        <v>21.2</v>
+        <v>5.34</v>
       </c>
       <c r="H187" s="7" t="s">
         <v>351</v>
@@ -9463,7 +9465,7 @@
         <v>0.0</v>
       </c>
       <c r="L187" s="7" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="M187" s="7" t="s">
         <v>20</v>
@@ -9475,7 +9477,7 @@
     </row>
     <row r="188">
       <c r="A188" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>421</v>
@@ -9487,16 +9489,16 @@
         <v>350</v>
       </c>
       <c r="E188" s="9" t="n">
-        <v>5.34</v>
+        <v>6.79</v>
       </c>
       <c r="F188" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="G188" s="9" t="n">
-        <v>5.34</v>
+        <v>6.79</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>351</v>
+        <v>64</v>
       </c>
       <c r="I188" s="9" t="n">
         <v>0.0</v>
@@ -9532,16 +9534,16 @@
         <v>350</v>
       </c>
       <c r="E189" s="9" t="n">
-        <v>6.79</v>
+        <v>2.66</v>
       </c>
       <c r="F189" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="G189" s="9" t="n">
-        <v>6.79</v>
+        <v>2.66</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>64</v>
+        <v>351</v>
       </c>
       <c r="I189" s="9" t="n">
         <v>0.0</v>
@@ -9570,20 +9572,18 @@
       <c r="B190" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="C190" s="7" t="s">
-        <v>346</v>
-      </c>
+      <c r="C190" s="7"/>
       <c r="D190" s="7" t="s">
         <v>350</v>
       </c>
       <c r="E190" s="9" t="n">
-        <v>2.66</v>
+        <v>2.97</v>
       </c>
       <c r="F190" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="G190" s="9" t="n">
-        <v>2.66</v>
+        <v>2.97</v>
       </c>
       <c r="H190" s="7" t="s">
         <v>351</v>
@@ -9598,7 +9598,7 @@
         <v>0.0</v>
       </c>
       <c r="L190" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M190" s="7" t="s">
         <v>20</v>
@@ -9610,23 +9610,23 @@
     </row>
     <row r="191">
       <c r="A191" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B191" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="C191" s="7"/>
       <c r="D191" s="7" t="s">
         <v>350</v>
       </c>
       <c r="E191" s="9" t="n">
-        <v>2.97</v>
+        <v>5.99</v>
       </c>
       <c r="F191" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="G191" s="9" t="n">
-        <v>2.97</v>
+        <v>5.99</v>
       </c>
       <c r="H191" s="7" t="s">
         <v>351</v>
@@ -9641,19 +9641,19 @@
         <v>0.0</v>
       </c>
       <c r="L191" s="7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M191" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N191" s="7"/>
       <c r="O191" s="7" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="7" t="s">
-        <v>357</v>
+        <v>427</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>428</v>
@@ -9663,13 +9663,13 @@
         <v>350</v>
       </c>
       <c r="E192" s="9" t="n">
-        <v>5.99</v>
+        <v>6.41</v>
       </c>
       <c r="F192" s="9" t="n">
         <v>0.0</v>
       </c>
       <c r="G192" s="9" t="n">
-        <v>5.99</v>
+        <v>6.41</v>
       </c>
       <c r="H192" s="7" t="s">
         <v>351</v>
@@ -9684,14 +9684,14 @@
         <v>0.0</v>
       </c>
       <c r="L192" s="7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="M192" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N192" s="7"/>
       <c r="O192" s="7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="193">
@@ -9701,14 +9701,14 @@
       <c r="D193" s="8"/>
       <c r="E193" s="10"/>
       <c r="F193" s="10" t="n">
-        <v>21988.92</v>
+        <v>23197.83</v>
       </c>
       <c r="G193" s="10"/>
       <c r="H193" s="8"/>
       <c r="I193" s="10"/>
       <c r="J193" s="10"/>
       <c r="K193" s="10" t="n">
-        <v>806.0</v>
+        <v>737.0</v>
       </c>
       <c r="L193" s="8"/>
       <c r="M193" s="8"/>
@@ -9725,14 +9725,14 @@
       <c r="D195" s="8"/>
       <c r="E195" s="10"/>
       <c r="F195" s="10" t="n">
-        <v>21988.92</v>
+        <v>23197.83</v>
       </c>
       <c r="G195" s="10"/>
       <c r="H195" s="8"/>
       <c r="I195" s="10"/>
       <c r="J195" s="10"/>
       <c r="K195" s="10" t="n">
-        <v>806.0</v>
+        <v>737.0</v>
       </c>
       <c r="L195" s="8"/>
       <c r="M195" s="8"/>
